--- a/data/khaosat.xlsx
+++ b/data/khaosat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cscctphcm-my.sharepoint.com/personal/gdcsbac_cscctphcm_onmicrosoft_com/Documents/webdemo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="13_ncr:1_{2EDB2D67-B674-4A3F-BBBF-6356067A4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E70C54A-2E68-4AB9-95D0-538C38B49038}"/>
+  <xr:revisionPtr revIDLastSave="589" documentId="13_ncr:1_{2EDB2D67-B674-4A3F-BBBF-6356067A4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67146408-2BD9-48D3-B149-5938CB415E55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1266DFF-32F5-4B0B-A729-2A44814C55C6}"/>
   </bookViews>
@@ -6343,8 +6343,8 @@
   <dimension ref="A1:P663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J607" sqref="J607"/>
+      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K610" sqref="K610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23636,17 +23636,17 @@
       </c>
       <c r="C608" s="23" t="str">
         <f t="shared" ref="C608:C663" si="4">LEFT(E608,2)&amp;"."&amp;RIGHT(E608,LEN(E608)-2)</f>
-        <v>11.874629700</v>
+        <v>10.736547729</v>
       </c>
       <c r="D608" s="23" t="str">
         <f t="shared" ref="D608:D663" si="5">LEFT(F608,2)&amp;"."&amp;RIGHT(F608,LEN(F608)-2)</f>
-        <v>59.86733572</v>
+        <v>10.6653933643</v>
       </c>
       <c r="E608" s="4">
-        <v>11874629700</v>
+        <v>10736547729</v>
       </c>
       <c r="F608" s="4">
-        <v>5986733572</v>
+        <v>106653933643</v>
       </c>
       <c r="N608" s="1" t="s">
         <v>1655</v>
@@ -23658,17 +23658,17 @@
       </c>
       <c r="C609" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874912681</v>
+        <v>10.736804021</v>
       </c>
       <c r="D609" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86557565</v>
+        <v>10.6653773500</v>
       </c>
       <c r="E609" s="4">
-        <v>11874912681</v>
+        <v>10736804021</v>
       </c>
       <c r="F609" s="4">
-        <v>5986557565</v>
+        <v>106653773500</v>
       </c>
       <c r="N609" s="1" t="s">
         <v>1655</v>
@@ -23680,17 +23680,17 @@
       </c>
       <c r="C610" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.875265360</v>
+        <v>10.737123400</v>
       </c>
       <c r="D610" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86351766</v>
+        <v>10.6653586309</v>
       </c>
       <c r="E610" s="4">
-        <v>11875265360</v>
+        <v>10737123400</v>
       </c>
       <c r="F610" s="4">
-        <v>5986351766</v>
+        <v>106653586309</v>
       </c>
       <c r="N610" s="1" t="s">
         <v>1655</v>
@@ -23702,17 +23702,17 @@
       </c>
       <c r="C611" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.875560744</v>
+        <v>10.737390755</v>
       </c>
       <c r="D611" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86231800</v>
+        <v>10.6653477432</v>
       </c>
       <c r="E611" s="4">
-        <v>11875560744</v>
+        <v>10737390755</v>
       </c>
       <c r="F611" s="4">
-        <v>5986231800</v>
+        <v>106653477432</v>
       </c>
       <c r="N611" s="1" t="s">
         <v>1655</v>
@@ -23724,17 +23724,17 @@
       </c>
       <c r="C612" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.875904814</v>
+        <v>10.737701841</v>
       </c>
       <c r="D612" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86218620</v>
+        <v>10.6653466308</v>
       </c>
       <c r="E612" s="4">
-        <v>11875904814</v>
+        <v>10737701841</v>
       </c>
       <c r="F612" s="4">
-        <v>5986218620</v>
+        <v>106653466308</v>
       </c>
       <c r="N612" s="1" t="s">
         <v>1655</v>
@@ -23746,17 +23746,17 @@
       </c>
       <c r="C613" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876198416</v>
+        <v>10.737967314</v>
       </c>
       <c r="D613" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86200202</v>
+        <v>10.6653450259</v>
       </c>
       <c r="E613" s="4">
-        <v>11876198416</v>
+        <v>10737967314</v>
       </c>
       <c r="F613" s="4">
-        <v>5986200202</v>
+        <v>106653450259</v>
       </c>
       <c r="N613" s="1" t="s">
         <v>1655</v>
@@ -23768,17 +23768,17 @@
       </c>
       <c r="C614" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.875169554</v>
+        <v>10.737036733</v>
       </c>
       <c r="D614" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86372323</v>
+        <v>10.6653604844</v>
       </c>
       <c r="E614" s="4">
-        <v>11875169554</v>
+        <v>10737036733</v>
       </c>
       <c r="F614" s="4">
-        <v>5986372323</v>
+        <v>106653604844</v>
       </c>
       <c r="N614" s="1" t="s">
         <v>1655</v>
@@ -23790,17 +23790,17 @@
       </c>
       <c r="C615" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.875106436</v>
+        <v>10.736979884</v>
       </c>
       <c r="D615" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86292966</v>
+        <v>10.6653532127</v>
       </c>
       <c r="E615" s="4">
-        <v>11875106436</v>
+        <v>10736979884</v>
       </c>
       <c r="F615" s="4">
-        <v>5986292966</v>
+        <v>106653532127</v>
       </c>
       <c r="N615" s="1" t="s">
         <v>1655</v>
@@ -23812,17 +23812,17 @@
       </c>
       <c r="C616" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874460252</v>
+        <v>10.736395654</v>
       </c>
       <c r="D616" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86315106</v>
+        <v>10.6653550629</v>
       </c>
       <c r="E616" s="4">
-        <v>11874460252</v>
+        <v>10736395654</v>
       </c>
       <c r="F616" s="4">
-        <v>5986315106</v>
+        <v>106653550629</v>
       </c>
       <c r="N616" s="1" t="s">
         <v>1655</v>
@@ -23834,17 +23834,17 @@
       </c>
       <c r="C617" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874121765</v>
+        <v>10.736089608</v>
       </c>
       <c r="D617" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86331277</v>
+        <v>10.6653564502</v>
       </c>
       <c r="E617" s="4">
-        <v>11874121765</v>
+        <v>10736089608</v>
       </c>
       <c r="F617" s="4">
-        <v>5986331277</v>
+        <v>106653564502</v>
       </c>
       <c r="N617" s="1" t="s">
         <v>1655</v>
@@ -23856,17 +23856,17 @@
       </c>
       <c r="C618" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873967693</v>
+        <v>10.735950312</v>
       </c>
       <c r="D618" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86335484</v>
+        <v>10.6653567934</v>
       </c>
       <c r="E618" s="4">
-        <v>11873967693</v>
+        <v>10735950312</v>
       </c>
       <c r="F618" s="4">
-        <v>5986335484</v>
+        <v>106653567934</v>
       </c>
       <c r="N618" s="1" t="s">
         <v>1655</v>
@@ -23878,17 +23878,17 @@
       </c>
       <c r="C619" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873668346</v>
+        <v>10.735679599</v>
       </c>
       <c r="D619" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86370460</v>
+        <v>10.6653599103</v>
       </c>
       <c r="E619" s="4">
-        <v>11873668346</v>
+        <v>10735679599</v>
       </c>
       <c r="F619" s="4">
-        <v>5986370460</v>
+        <v>106653599103</v>
       </c>
       <c r="N619" s="1" t="s">
         <v>1655</v>
@@ -23900,17 +23900,17 @@
       </c>
       <c r="C620" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873548714</v>
+        <v>10.735571406</v>
       </c>
       <c r="D620" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86386378</v>
+        <v>10.6653613333</v>
       </c>
       <c r="E620" s="4">
-        <v>11873548714</v>
+        <v>10735571406</v>
       </c>
       <c r="F620" s="4">
-        <v>5986386378</v>
+        <v>106653613333</v>
       </c>
       <c r="N620" s="1" t="s">
         <v>1655</v>
@@ -23922,17 +23922,17 @@
       </c>
       <c r="C621" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873339517</v>
+        <v>10.735382214</v>
       </c>
       <c r="D621" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86413412</v>
+        <v>10.6653637485</v>
       </c>
       <c r="E621" s="4">
-        <v>11873339517</v>
+        <v>10735382214</v>
       </c>
       <c r="F621" s="4">
-        <v>5986413412</v>
+        <v>106653637485</v>
       </c>
       <c r="N621" s="1" t="s">
         <v>1655</v>
@@ -23944,17 +23944,17 @@
       </c>
       <c r="C622" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873138193</v>
+        <v>10.735200117</v>
       </c>
       <c r="D622" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86448627</v>
+        <v>10.6653669136</v>
       </c>
       <c r="E622" s="4">
-        <v>11873138193</v>
+        <v>10735200117</v>
       </c>
       <c r="F622" s="4">
-        <v>5986448627</v>
+        <v>106653669136</v>
       </c>
       <c r="N622" s="1" t="s">
         <v>1655</v>
@@ -23966,17 +23966,17 @@
       </c>
       <c r="C623" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873867526</v>
+        <v>10.735859999</v>
       </c>
       <c r="D623" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86243232</v>
+        <v>10.6653483333</v>
       </c>
       <c r="E623" s="4">
-        <v>11873867526</v>
+        <v>10735859999</v>
       </c>
       <c r="F623" s="4">
-        <v>5986243232</v>
+        <v>106653483333</v>
       </c>
       <c r="N623" s="1" t="s">
         <v>1655</v>
@@ -23988,17 +23988,17 @@
       </c>
       <c r="C624" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873951282</v>
+        <v>10.735936216</v>
       </c>
       <c r="D624" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.86056961</v>
+        <v>10.6653313266</v>
       </c>
       <c r="E624" s="4">
-        <v>11873951282</v>
+        <v>10735936216</v>
       </c>
       <c r="F624" s="4">
-        <v>5986056961</v>
+        <v>106653313266</v>
       </c>
       <c r="N624" s="1" t="s">
         <v>1655</v>
@@ -24010,17 +24010,17 @@
       </c>
       <c r="C625" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873937601</v>
+        <v>10.735924439</v>
       </c>
       <c r="D625" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.85834210</v>
+        <v>10.6653109593</v>
       </c>
       <c r="E625" s="4">
-        <v>11873937601</v>
+        <v>10735924439</v>
       </c>
       <c r="F625" s="4">
-        <v>5985834210</v>
+        <v>106653109593</v>
       </c>
       <c r="N625" s="1" t="s">
         <v>1655</v>
@@ -24032,17 +24032,17 @@
       </c>
       <c r="C626" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874362695</v>
+        <v>10.736308333</v>
       </c>
       <c r="D626" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.85986546</v>
+        <v>10.6653250000</v>
       </c>
       <c r="E626" s="4">
-        <v>11874362695</v>
+        <v>10736308333</v>
       </c>
       <c r="F626" s="4">
-        <v>5985986546</v>
+        <v>106653250000</v>
       </c>
       <c r="N626" s="1" t="s">
         <v>1655</v>
@@ -24054,17 +24054,17 @@
       </c>
       <c r="C627" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874255818</v>
+        <v>10.736198173</v>
       </c>
       <c r="D627" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.91072354</v>
+        <v>10.6657899109</v>
       </c>
       <c r="E627" s="4">
-        <v>11874255818</v>
+        <v>10736198173</v>
       </c>
       <c r="F627" s="4">
-        <v>5991072354</v>
+        <v>106657899109</v>
       </c>
       <c r="N627" s="1" t="s">
         <v>1655</v>
@@ -24076,17 +24076,17 @@
       </c>
       <c r="C628" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874248143</v>
+        <v>10.736191841</v>
       </c>
       <c r="D628" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90844791</v>
+        <v>10.6657691051</v>
       </c>
       <c r="E628" s="4">
-        <v>11874248143</v>
+        <v>10736191841</v>
       </c>
       <c r="F628" s="4">
-        <v>5990844791</v>
+        <v>106657691051</v>
       </c>
       <c r="N628" s="1" t="s">
         <v>1655</v>
@@ -24098,17 +24098,17 @@
       </c>
       <c r="C629" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874198346</v>
+        <v>10.736147375</v>
       </c>
       <c r="D629" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90638050</v>
+        <v>10.6657501917</v>
       </c>
       <c r="E629" s="4">
-        <v>11874198346</v>
+        <v>10736147375</v>
       </c>
       <c r="F629" s="4">
-        <v>5990638050</v>
+        <v>106657501917</v>
       </c>
       <c r="N629" s="1" t="s">
         <v>1655</v>
@@ -24120,17 +24120,17 @@
       </c>
       <c r="C630" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874192938</v>
+        <v>10.736143080</v>
       </c>
       <c r="D630" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90415808</v>
+        <v>10.6657298731</v>
       </c>
       <c r="E630" s="4">
-        <v>11874192938</v>
+        <v>10736143080</v>
       </c>
       <c r="F630" s="4">
-        <v>5990415808</v>
+        <v>106657298731</v>
       </c>
       <c r="N630" s="1" t="s">
         <v>1655</v>
@@ -24142,17 +24142,17 @@
       </c>
       <c r="C631" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874197081</v>
+        <v>10.736147385</v>
       </c>
       <c r="D631" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90205785</v>
+        <v>10.6657106741</v>
       </c>
       <c r="E631" s="4">
-        <v>11874197081</v>
+        <v>10736147385</v>
       </c>
       <c r="F631" s="4">
-        <v>5990205785</v>
+        <v>106657106741</v>
       </c>
       <c r="N631" s="1" t="s">
         <v>1655</v>
@@ -24164,17 +24164,17 @@
       </c>
       <c r="C632" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874222824</v>
+        <v>10.736171062</v>
       </c>
       <c r="D632" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90054087</v>
+        <v>10.6656968129</v>
       </c>
       <c r="E632" s="4">
-        <v>11874222824</v>
+        <v>10736171062</v>
       </c>
       <c r="F632" s="4">
-        <v>5990054087</v>
+        <v>106656968129</v>
       </c>
       <c r="N632" s="1" t="s">
         <v>1655</v>
@@ -24186,17 +24186,17 @@
       </c>
       <c r="C633" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.874210084</v>
+        <v>10.736160120</v>
       </c>
       <c r="D633" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89838481</v>
+        <v>10.6656770990</v>
       </c>
       <c r="E633" s="4">
-        <v>11874210084</v>
+        <v>10736160120</v>
       </c>
       <c r="F633" s="4">
-        <v>5989838481</v>
+        <v>106656770990</v>
       </c>
       <c r="N633" s="1" t="s">
         <v>1655</v>
@@ -24208,17 +24208,17 @@
       </c>
       <c r="C634" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873917433</v>
+        <v>10.735892861</v>
       </c>
       <c r="D634" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90848341</v>
+        <v>10.6657693403</v>
       </c>
       <c r="E634" s="4">
-        <v>11873917433</v>
+        <v>10735892861</v>
       </c>
       <c r="F634" s="4">
-        <v>5990848341</v>
+        <v>106657693403</v>
       </c>
       <c r="N634" s="1" t="s">
         <v>1655</v>
@@ -24230,17 +24230,17 @@
       </c>
       <c r="C635" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873644511</v>
+        <v>10.735646134</v>
       </c>
       <c r="D635" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90847179</v>
+        <v>10.6657691604</v>
       </c>
       <c r="E635" s="4">
-        <v>11873644511</v>
+        <v>10735646134</v>
       </c>
       <c r="F635" s="4">
-        <v>5990847179</v>
+        <v>106657691604</v>
       </c>
       <c r="N635" s="1" t="s">
         <v>1655</v>
@@ -24252,17 +24252,17 @@
       </c>
       <c r="C636" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873404352</v>
+        <v>10.735428935</v>
       </c>
       <c r="D636" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90880317</v>
+        <v>10.6657721250</v>
       </c>
       <c r="E636" s="4">
-        <v>11873404352</v>
+        <v>10735428935</v>
       </c>
       <c r="F636" s="4">
-        <v>5990880317</v>
+        <v>106657721250</v>
       </c>
       <c r="N636" s="1" t="s">
         <v>1655</v>
@@ -24274,17 +24274,17 @@
       </c>
       <c r="C637" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873400176</v>
+        <v>10.735425966</v>
       </c>
       <c r="D637" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90578155</v>
+        <v>10.6657445006</v>
       </c>
       <c r="E637" s="4">
-        <v>11873400176</v>
+        <v>10735425966</v>
       </c>
       <c r="F637" s="4">
-        <v>5990578155</v>
+        <v>106657445006</v>
       </c>
       <c r="N637" s="1" t="s">
         <v>1655</v>
@@ -24296,17 +24296,17 @@
       </c>
       <c r="C638" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873348062</v>
+        <v>10.735379041</v>
       </c>
       <c r="D638" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90507573</v>
+        <v>10.6657380339</v>
       </c>
       <c r="E638" s="4">
-        <v>11873348062</v>
+        <v>10735379041</v>
       </c>
       <c r="F638" s="4">
-        <v>5990507573</v>
+        <v>106657380339</v>
       </c>
       <c r="N638" s="1" t="s">
         <v>1655</v>
@@ -24318,17 +24318,17 @@
       </c>
       <c r="C639" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873398712</v>
+        <v>10.735425379</v>
       </c>
       <c r="D639" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90301838</v>
+        <v>10.6657192396</v>
       </c>
       <c r="E639" s="4">
-        <v>11873398712</v>
+        <v>10735425379</v>
       </c>
       <c r="F639" s="4">
-        <v>5990301838</v>
+        <v>106657192396</v>
       </c>
       <c r="N639" s="1" t="s">
         <v>1655</v>
@@ -24340,17 +24340,17 @@
       </c>
       <c r="C640" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873416692</v>
+        <v>10.735441891</v>
       </c>
       <c r="D640" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90205546</v>
+        <v>10.6657104415</v>
       </c>
       <c r="E640" s="4">
-        <v>11873416692</v>
+        <v>10735441891</v>
       </c>
       <c r="F640" s="4">
-        <v>5990205546</v>
+        <v>106657104415</v>
       </c>
       <c r="N640" s="1" t="s">
         <v>1655</v>
@@ -24362,17 +24362,17 @@
       </c>
       <c r="C641" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873416919</v>
+        <v>10.735442347</v>
       </c>
       <c r="D641" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90111360</v>
+        <v>10.6657018311</v>
       </c>
       <c r="E641" s="4">
-        <v>11873416919</v>
+        <v>10735442347</v>
       </c>
       <c r="F641" s="4">
-        <v>5990111360</v>
+        <v>106657018311</v>
       </c>
       <c r="N641" s="1" t="s">
         <v>1655</v>
@@ -24384,17 +24384,17 @@
       </c>
       <c r="C642" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873391449</v>
+        <v>10.735420052</v>
       </c>
       <c r="D642" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89837267</v>
+        <v>10.6656767670</v>
       </c>
       <c r="E642" s="4">
-        <v>11873391449</v>
+        <v>10735420052</v>
       </c>
       <c r="F642" s="4">
-        <v>5989837267</v>
+        <v>106656767670</v>
       </c>
       <c r="N642" s="1" t="s">
         <v>1655</v>
@@ -24406,17 +24406,17 @@
       </c>
       <c r="C643" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873381870</v>
+        <v>10.735411917</v>
       </c>
       <c r="D643" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89640874</v>
+        <v>10.6656588103</v>
       </c>
       <c r="E643" s="4">
-        <v>11873381870</v>
+        <v>10735411917</v>
       </c>
       <c r="F643" s="4">
-        <v>5989640874</v>
+        <v>106656588103</v>
       </c>
       <c r="N643" s="1" t="s">
         <v>1655</v>
@@ -24428,17 +24428,17 @@
       </c>
       <c r="C644" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.871088543</v>
+        <v>10.733340000</v>
       </c>
       <c r="D644" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89144711</v>
+        <v>10.6656128333</v>
       </c>
       <c r="E644" s="4">
-        <v>11871088543</v>
+        <v>10733340000</v>
       </c>
       <c r="F644" s="4">
-        <v>5989144711</v>
+        <v>106656128333</v>
       </c>
       <c r="N644" s="1" t="s">
         <v>1655</v>
@@ -24450,17 +24450,17 @@
       </c>
       <c r="C645" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873044838</v>
+        <v>10.735108333</v>
       </c>
       <c r="D645" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89226449</v>
+        <v>10.6656208334</v>
       </c>
       <c r="E645" s="4">
-        <v>11873044838</v>
+        <v>10735108333</v>
       </c>
       <c r="F645" s="4">
-        <v>5989226449</v>
+        <v>106656208334</v>
       </c>
       <c r="N645" s="1" t="s">
         <v>1655</v>
@@ -24472,17 +24472,17 @@
       </c>
       <c r="C646" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.873044838</v>
+        <v>10.735108333</v>
       </c>
       <c r="D646" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89226449</v>
+        <v>10.6656208334</v>
       </c>
       <c r="E646" s="4">
-        <v>11873044838</v>
+        <v>10735108333</v>
       </c>
       <c r="F646" s="4">
-        <v>5989226449</v>
+        <v>106656208334</v>
       </c>
       <c r="N646" s="1" t="s">
         <v>1655</v>
@@ -24494,17 +24494,17 @@
       </c>
       <c r="C647" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870781970</v>
+        <v>10.733062585</v>
       </c>
       <c r="D647" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89243968</v>
+        <v>10.6656218246</v>
       </c>
       <c r="E647" s="4">
-        <v>11870781970</v>
+        <v>10733062585</v>
       </c>
       <c r="F647" s="4">
-        <v>5989243968</v>
+        <v>106656218246</v>
       </c>
       <c r="N647" s="1" t="s">
         <v>1655</v>
@@ -24516,17 +24516,17 @@
       </c>
       <c r="C648" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870797249</v>
+        <v>10.733075679</v>
       </c>
       <c r="D648" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89513540</v>
+        <v>10.6656464724</v>
       </c>
       <c r="E648" s="4">
-        <v>11870797249</v>
+        <v>10733075679</v>
       </c>
       <c r="F648" s="4">
-        <v>5989513540</v>
+        <v>106656464724</v>
       </c>
       <c r="N648" s="1" t="s">
         <v>1655</v>
@@ -24538,17 +24538,17 @@
       </c>
       <c r="C649" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870809541</v>
+        <v>10.733086270</v>
       </c>
       <c r="D649" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.89709095</v>
+        <v>10.6656643530</v>
       </c>
       <c r="E649" s="4">
-        <v>11870809541</v>
+        <v>10733086270</v>
       </c>
       <c r="F649" s="4">
-        <v>5989709095</v>
+        <v>106656643530</v>
       </c>
       <c r="N649" s="1" t="s">
         <v>1655</v>
@@ -24560,17 +24560,17 @@
       </c>
       <c r="C650" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870826480</v>
+        <v>10.733100765</v>
       </c>
       <c r="D650" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90016114</v>
+        <v>10.6656924248</v>
       </c>
       <c r="E650" s="4">
-        <v>11870826480</v>
+        <v>10733100765</v>
       </c>
       <c r="F650" s="4">
-        <v>5990016114</v>
+        <v>106656924248</v>
       </c>
       <c r="N650" s="1" t="s">
         <v>1655</v>
@@ -24582,17 +24582,17 @@
       </c>
       <c r="C651" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870843907</v>
+        <v>10.733116314</v>
       </c>
       <c r="D651" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90093334</v>
+        <v>10.6656994887</v>
       </c>
       <c r="E651" s="4">
-        <v>11870843907</v>
+        <v>10733116314</v>
       </c>
       <c r="F651" s="4">
-        <v>5990093334</v>
+        <v>106656994887</v>
       </c>
       <c r="N651" s="1" t="s">
         <v>1655</v>
@@ -24604,17 +24604,17 @@
       </c>
       <c r="C652" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870826606</v>
+        <v>10.733100213</v>
       </c>
       <c r="D652" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90265997</v>
+        <v>10.6657152686</v>
       </c>
       <c r="E652" s="4">
-        <v>11870826606</v>
+        <v>10733100213</v>
       </c>
       <c r="F652" s="4">
-        <v>5990265997</v>
+        <v>106657152686</v>
       </c>
       <c r="N652" s="1" t="s">
         <v>1655</v>
@@ -24626,17 +24626,17 @@
       </c>
       <c r="C653" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870836447</v>
+        <v>10.733108626</v>
       </c>
       <c r="D653" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90447299</v>
+        <v>10.6657318456</v>
       </c>
       <c r="E653" s="4">
-        <v>11870836447</v>
+        <v>10733108626</v>
       </c>
       <c r="F653" s="4">
-        <v>5990447299</v>
+        <v>106657318456</v>
       </c>
       <c r="N653" s="1" t="s">
         <v>1655</v>
@@ -24648,17 +24648,17 @@
       </c>
       <c r="C654" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870647687</v>
+        <v>10.732938935</v>
       </c>
       <c r="D654" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90089529</v>
+        <v>10.6656990879</v>
       </c>
       <c r="E654" s="4">
-        <v>11870647687</v>
+        <v>10732938935</v>
       </c>
       <c r="F654" s="4">
-        <v>5990089529</v>
+        <v>106656990879</v>
       </c>
       <c r="N654" s="1" t="s">
         <v>1655</v>
@@ -24670,17 +24670,17 @@
       </c>
       <c r="C655" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870516779</v>
+        <v>10.732820685</v>
       </c>
       <c r="D655" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90054776</v>
+        <v>10.6656958753</v>
       </c>
       <c r="E655" s="4">
-        <v>11870516779</v>
+        <v>10732820685</v>
       </c>
       <c r="F655" s="4">
-        <v>5990054776</v>
+        <v>106656958753</v>
       </c>
       <c r="N655" s="1" t="s">
         <v>1655</v>
@@ -24692,17 +24692,17 @@
       </c>
       <c r="C656" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.870285350</v>
+        <v>10.732611446</v>
       </c>
       <c r="D656" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>59.90061675</v>
+        <v>10.6656964438</v>
       </c>
       <c r="E656" s="4">
-        <v>11870285350</v>
+        <v>10732611446</v>
       </c>
       <c r="F656" s="4">
-        <v>5990061675</v>
+        <v>106656964438</v>
       </c>
       <c r="N656" s="1" t="s">
         <v>1655</v>
@@ -24714,17 +24714,17 @@
       </c>
       <c r="C657" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876184897</v>
+        <v>10.737903333</v>
       </c>
       <c r="D657" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.05495646</v>
+        <v>10.6671090000</v>
       </c>
       <c r="E657" s="4">
-        <v>11876184897</v>
+        <v>10737903333</v>
       </c>
       <c r="F657" s="4">
-        <v>6005495646</v>
+        <v>106671090000</v>
       </c>
       <c r="N657" s="1" t="s">
         <v>1655</v>
@@ -24736,17 +24736,17 @@
       </c>
       <c r="C658" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876140528</v>
+        <v>10.737863261</v>
       </c>
       <c r="D658" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.05480778</v>
+        <v>10.6671076288</v>
       </c>
       <c r="E658" s="4">
-        <v>11876140528</v>
+        <v>10737863261</v>
       </c>
       <c r="F658" s="4">
-        <v>6005480778</v>
+        <v>106671076288</v>
       </c>
       <c r="N658" s="1" t="s">
         <v>1655</v>
@@ -24758,17 +24758,17 @@
       </c>
       <c r="C659" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876268073</v>
+        <v>10.737977733</v>
       </c>
       <c r="D659" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.05788198</v>
+        <v>10.6671357678</v>
       </c>
       <c r="E659" s="4">
-        <v>11876268073</v>
+        <v>10737977733</v>
       </c>
       <c r="F659" s="4">
-        <v>6005788198</v>
+        <v>106671357678</v>
       </c>
       <c r="N659" s="1" t="s">
         <v>1655</v>
@@ -24780,17 +24780,17 @@
       </c>
       <c r="C660" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876302989</v>
+        <v>10.738008952</v>
       </c>
       <c r="D660" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.05916211</v>
+        <v>10.6671474803</v>
       </c>
       <c r="E660" s="4">
-        <v>11876302989</v>
+        <v>10738008952</v>
       </c>
       <c r="F660" s="4">
-        <v>6005916211</v>
+        <v>106671474803</v>
       </c>
       <c r="N660" s="1" t="s">
         <v>1655</v>
@@ -24802,17 +24802,17 @@
       </c>
       <c r="C661" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876445444</v>
+        <v>10.738136791</v>
       </c>
       <c r="D661" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.06265000</v>
+        <v>10.6671794054</v>
       </c>
       <c r="E661" s="4">
-        <v>11876445444</v>
+        <v>10738136791</v>
       </c>
       <c r="F661" s="4">
-        <v>6006265000</v>
+        <v>106671794054</v>
       </c>
       <c r="N661" s="1" t="s">
         <v>1655</v>
@@ -24824,17 +24824,17 @@
       </c>
       <c r="C662" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876597113</v>
+        <v>10.738272834</v>
       </c>
       <c r="D662" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.06660039</v>
+        <v>10.6672155612</v>
       </c>
       <c r="E662" s="4">
-        <v>11876597113</v>
+        <v>10738272834</v>
       </c>
       <c r="F662" s="4">
-        <v>6006660039</v>
+        <v>106672155612</v>
       </c>
       <c r="N662" s="1" t="s">
         <v>1655</v>
@@ -24846,17 +24846,17 @@
       </c>
       <c r="C663" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>11.876766329</v>
+        <v>10.738424635</v>
       </c>
       <c r="D663" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>60.07093534</v>
+        <v>10.6672552374</v>
       </c>
       <c r="E663" s="4">
-        <v>11876766329</v>
+        <v>10738424635</v>
       </c>
       <c r="F663" s="4">
-        <v>6007093534</v>
+        <v>106672552374</v>
       </c>
       <c r="N663" s="1" t="s">
         <v>1655</v>

--- a/data/khaosat.xlsx
+++ b/data/khaosat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cscctphcm-my.sharepoint.com/personal/gdcsbac_cscctphcm_onmicrosoft_com/Documents/webdemo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="589" documentId="13_ncr:1_{2EDB2D67-B674-4A3F-BBBF-6356067A4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67146408-2BD9-48D3-B149-5938CB415E55}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="13_ncr:1_{2EDB2D67-B674-4A3F-BBBF-6356067A4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F6DC458-42D0-4376-94FB-EA2421BECDD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1266DFF-32F5-4B0B-A729-2A44814C55C6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1266DFF-32F5-4B0B-A729-2A44814C55C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -6343,8 +6343,8 @@
   <dimension ref="A1:P663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K610" sqref="K610"/>
+      <pane ySplit="1" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J646" sqref="J646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21615,8 +21615,8 @@
         <v>10.733923651</v>
       </c>
       <c r="D516" s="23" t="str">
-        <f t="shared" ref="D516:D578" si="1">LEFT(F516,2)&amp;"."&amp;RIGHT(F516,LEN(F516)-2)</f>
-        <v>10.6641064393</v>
+        <f>LEFT(F516,3)&amp;"."&amp;RIGHT(F516,LEN(F516)-3)</f>
+        <v>106.641064393</v>
       </c>
       <c r="E516" s="4">
         <v>10733923651</v>
@@ -21637,8 +21637,8 @@
         <v>10.733921666</v>
       </c>
       <c r="D517" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>10.6641059999</v>
+        <f t="shared" ref="D517:D580" si="1">LEFT(F517,3)&amp;"."&amp;RIGHT(F517,LEN(F517)-3)</f>
+        <v>106.641059999</v>
       </c>
       <c r="E517" s="4">
         <v>10733921666</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="D518" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641064999</v>
+        <v>106.641064999</v>
       </c>
       <c r="E518" s="4">
         <v>10733936666</v>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="D519" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641061666</v>
+        <v>106.641061666</v>
       </c>
       <c r="E519" s="4">
         <v>10733921666</v>
@@ -21704,7 +21704,7 @@
       </c>
       <c r="D520" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641200000</v>
+        <v>106.641200000</v>
       </c>
       <c r="E520" s="4">
         <v>10733690000</v>
@@ -21726,7 +21726,7 @@
       </c>
       <c r="D521" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641115000</v>
+        <v>106.641115000</v>
       </c>
       <c r="E521" s="4">
         <v>10733826667</v>
@@ -21748,7 +21748,7 @@
       </c>
       <c r="D522" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639076499</v>
+        <v>106.639076499</v>
       </c>
       <c r="E522" s="4">
         <v>10735990558</v>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="D523" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639337874</v>
+        <v>106.639337874</v>
       </c>
       <c r="E523" s="4">
         <v>10736156946</v>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="D524" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639514897</v>
+        <v>106.639514897</v>
       </c>
       <c r="E524" s="4">
         <v>10736260332</v>
@@ -21814,7 +21814,7 @@
       </c>
       <c r="D525" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639629447</v>
+        <v>106.639629447</v>
       </c>
       <c r="E525" s="4">
         <v>10736321112</v>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="D526" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639885687</v>
+        <v>106.639885687</v>
       </c>
       <c r="E526" s="4">
         <v>10736356953</v>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="D527" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639444707</v>
+        <v>106.639444707</v>
       </c>
       <c r="E527" s="4">
         <v>10735425389</v>
@@ -21880,7 +21880,7 @@
       </c>
       <c r="D528" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639516263</v>
+        <v>106.639516263</v>
       </c>
       <c r="E528" s="4">
         <v>10735466922</v>
@@ -21902,7 +21902,7 @@
       </c>
       <c r="D529" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639616376</v>
+        <v>106.639616376</v>
       </c>
       <c r="E529" s="4">
         <v>10735529919</v>
@@ -21924,7 +21924,7 @@
       </c>
       <c r="D530" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6639819427</v>
+        <v>106.639819427</v>
       </c>
       <c r="E530" s="4">
         <v>10735659175</v>
@@ -21946,7 +21946,7 @@
       </c>
       <c r="D531" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640091235</v>
+        <v>106.640091235</v>
       </c>
       <c r="E531" s="4">
         <v>10735850533</v>
@@ -21968,7 +21968,7 @@
       </c>
       <c r="D532" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640302360</v>
+        <v>106.640302360</v>
       </c>
       <c r="E532" s="4">
         <v>10736000266</v>
@@ -21990,7 +21990,7 @@
       </c>
       <c r="D533" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640352597</v>
+        <v>106.640352597</v>
       </c>
       <c r="E533" s="4">
         <v>10735938463</v>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="D534" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640449605</v>
+        <v>106.640449605</v>
       </c>
       <c r="E534" s="4">
         <v>10736024823</v>
@@ -22034,7 +22034,7 @@
       </c>
       <c r="D535" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641200000</v>
+        <v>106.641200000</v>
       </c>
       <c r="E535" s="4">
         <v>10733690000</v>
@@ -22056,7 +22056,7 @@
       </c>
       <c r="D536" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641115000</v>
+        <v>106.641115000</v>
       </c>
       <c r="E536" s="4">
         <v>10733826667</v>
@@ -22078,7 +22078,7 @@
       </c>
       <c r="D537" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640399824</v>
+        <v>106.640399824</v>
       </c>
       <c r="E537" s="4">
         <v>10736889294</v>
@@ -22100,7 +22100,7 @@
       </c>
       <c r="D538" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640388162</v>
+        <v>106.640388162</v>
       </c>
       <c r="E538" s="4">
         <v>10736649213</v>
@@ -22122,7 +22122,7 @@
       </c>
       <c r="D539" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640518667</v>
+        <v>106.640518667</v>
       </c>
       <c r="E539" s="4">
         <v>10736436340</v>
@@ -22144,7 +22144,7 @@
       </c>
       <c r="D540" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640676804</v>
+        <v>106.640676804</v>
       </c>
       <c r="E540" s="4">
         <v>10736162065</v>
@@ -22166,7 +22166,7 @@
       </c>
       <c r="D541" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640777450</v>
+        <v>106.640777450</v>
       </c>
       <c r="E541" s="4">
         <v>10736164655</v>
@@ -22188,7 +22188,7 @@
       </c>
       <c r="D542" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640839958</v>
+        <v>106.640839958</v>
       </c>
       <c r="E542" s="4">
         <v>10736979074</v>
@@ -22210,7 +22210,7 @@
       </c>
       <c r="D543" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641023227</v>
+        <v>106.641023227</v>
       </c>
       <c r="E543" s="4">
         <v>10736744658</v>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="D544" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641113297</v>
+        <v>106.641113297</v>
       </c>
       <c r="E544" s="4">
         <v>10736574100</v>
@@ -22254,7 +22254,7 @@
       </c>
       <c r="D545" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641066636</v>
+        <v>106.641066636</v>
       </c>
       <c r="E545" s="4">
         <v>10736471668</v>
@@ -22276,7 +22276,7 @@
       </c>
       <c r="D546" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641139999</v>
+        <v>106.641139999</v>
       </c>
       <c r="E546" s="4">
         <v>10736299046</v>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="D547" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6640799891</v>
+        <v>106.640799891</v>
       </c>
       <c r="E547" s="4">
         <v>10736665348</v>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="D548" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633427393</v>
+        <v>106.633427393</v>
       </c>
       <c r="E548" s="4">
         <v>10726375456</v>
@@ -22342,7 +22342,7 @@
       </c>
       <c r="D549" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633471327</v>
+        <v>106.633471327</v>
       </c>
       <c r="E549" s="4">
         <v>10726129952</v>
@@ -22364,7 +22364,7 @@
       </c>
       <c r="D550" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633535440</v>
+        <v>106.633535440</v>
       </c>
       <c r="E550" s="4">
         <v>10726323056</v>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="D551" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633618194</v>
+        <v>106.633618194</v>
       </c>
       <c r="E551" s="4">
         <v>10726565453</v>
@@ -22408,7 +22408,7 @@
       </c>
       <c r="D552" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633724151</v>
+        <v>106.633724151</v>
       </c>
       <c r="E552" s="4">
         <v>10726579628</v>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="D553" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633935487</v>
+        <v>106.633935487</v>
       </c>
       <c r="E553" s="4">
         <v>10726586879</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="D554" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6633976882</v>
+        <v>106.633976882</v>
       </c>
       <c r="E554" s="4">
         <v>10726666162</v>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="D555" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6634178286</v>
+        <v>106.634178286</v>
       </c>
       <c r="E555" s="4">
         <v>10726673565</v>
@@ -22496,7 +22496,7 @@
       </c>
       <c r="D556" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6636836611</v>
+        <v>106.636836611</v>
       </c>
       <c r="E556" s="4">
         <v>10734892728</v>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="D557" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6636895628</v>
+        <v>106.636895628</v>
       </c>
       <c r="E557" s="4">
         <v>10734863215</v>
@@ -22540,7 +22540,7 @@
       </c>
       <c r="D558" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6636921658</v>
+        <v>106.636921658</v>
       </c>
       <c r="E558" s="4">
         <v>10734721046</v>
@@ -22562,7 +22562,7 @@
       </c>
       <c r="D559" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6636990128</v>
+        <v>106.636990128</v>
       </c>
       <c r="E559" s="4">
         <v>10734490249</v>
@@ -22584,7 +22584,7 @@
       </c>
       <c r="D560" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6636992679</v>
+        <v>106.636992679</v>
       </c>
       <c r="E560" s="4">
         <v>10734260023</v>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="D561" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6636976516</v>
+        <v>106.636976516</v>
       </c>
       <c r="E561" s="4">
         <v>10734025442</v>
@@ -22628,7 +22628,7 @@
       </c>
       <c r="D562" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6637171073</v>
+        <v>106.637171073</v>
       </c>
       <c r="E562" s="4">
         <v>10734125333</v>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="D563" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648711666</v>
+        <v>106.648711666</v>
       </c>
       <c r="E563" s="4">
         <v>10741336667</v>
@@ -22672,7 +22672,7 @@
       </c>
       <c r="D564" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6644205000</v>
+        <v>106.644205000</v>
       </c>
       <c r="E564" s="4">
         <v>10739389999</v>
@@ -22694,7 +22694,7 @@
       </c>
       <c r="D565" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6644205000</v>
+        <v>106.644205000</v>
       </c>
       <c r="E565" s="4">
         <v>10739389999</v>
@@ -22716,7 +22716,7 @@
       </c>
       <c r="D566" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6641200000</v>
+        <v>106.641200000</v>
       </c>
       <c r="E566" s="4">
         <v>10733690000</v>
@@ -22738,7 +22738,7 @@
       </c>
       <c r="D567" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648689755</v>
+        <v>106.648689755</v>
       </c>
       <c r="E567" s="4">
         <v>10741325134</v>
@@ -22760,7 +22760,7 @@
       </c>
       <c r="D568" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648767062</v>
+        <v>106.648767062</v>
       </c>
       <c r="E568" s="4">
         <v>10741136317</v>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="D569" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648859819</v>
+        <v>106.648859819</v>
       </c>
       <c r="E569" s="4">
         <v>10740954215</v>
@@ -22804,7 +22804,7 @@
       </c>
       <c r="D570" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648911649</v>
+        <v>106.648911649</v>
       </c>
       <c r="E570" s="4">
         <v>10740761121</v>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="D571" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648946622</v>
+        <v>106.648946622</v>
       </c>
       <c r="E571" s="4">
         <v>10740587794</v>
@@ -22848,7 +22848,7 @@
       </c>
       <c r="D572" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6649002225</v>
+        <v>106.649002225</v>
       </c>
       <c r="E572" s="4">
         <v>10740397118</v>
@@ -22870,7 +22870,7 @@
       </c>
       <c r="D573" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6649103534</v>
+        <v>106.649103534</v>
       </c>
       <c r="E573" s="4">
         <v>10740154893</v>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="D574" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648736957</v>
+        <v>106.648736957</v>
       </c>
       <c r="E574" s="4">
         <v>10740874509</v>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="D575" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648586064</v>
+        <v>106.648586064</v>
       </c>
       <c r="E575" s="4">
         <v>10740799546</v>
@@ -22936,7 +22936,7 @@
       </c>
       <c r="D576" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648384398</v>
+        <v>106.648384398</v>
       </c>
       <c r="E576" s="4">
         <v>10740653638</v>
@@ -22958,7 +22958,7 @@
       </c>
       <c r="D577" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648275467</v>
+        <v>106.648275467</v>
       </c>
       <c r="E577" s="4">
         <v>10740588866</v>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="D578" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>10.6648142321</v>
+        <v>106.648142321</v>
       </c>
       <c r="E578" s="4">
         <v>10740499838</v>
@@ -23001,8 +23001,8 @@
         <v>10.740438088</v>
       </c>
       <c r="D579" s="23" t="str">
-        <f t="shared" ref="D579:D607" si="3">LEFT(F579,2)&amp;"."&amp;RIGHT(F579,LEN(F579)-2)</f>
-        <v>10.6648054821</v>
+        <f t="shared" si="1"/>
+        <v>106.648054821</v>
       </c>
       <c r="E579" s="4">
         <v>10740438088</v>
@@ -23023,8 +23023,8 @@
         <v>10.740339773</v>
       </c>
       <c r="D580" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>10.6647924644</v>
+        <f t="shared" si="1"/>
+        <v>106.647924644</v>
       </c>
       <c r="E580" s="4">
         <v>10740339773</v>
@@ -23045,8 +23045,8 @@
         <v>10.742249605</v>
       </c>
       <c r="D581" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>10.6651285847</v>
+        <f t="shared" ref="D581:D644" si="3">LEFT(F581,3)&amp;"."&amp;RIGHT(F581,LEN(F581)-3)</f>
+        <v>106.651285847</v>
       </c>
       <c r="E581" s="4">
         <v>10742249605</v>
@@ -23068,7 +23068,7 @@
       </c>
       <c r="D582" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651123040</v>
+        <v>106.651123040</v>
       </c>
       <c r="E582" s="4">
         <v>10742131755</v>
@@ -23090,7 +23090,7 @@
       </c>
       <c r="D583" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6650928993</v>
+        <v>106.650928993</v>
       </c>
       <c r="E583" s="4">
         <v>10742036544</v>
@@ -23112,7 +23112,7 @@
       </c>
       <c r="D584" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6648711666</v>
+        <v>106.648711666</v>
       </c>
       <c r="E584" s="4">
         <v>10741336667</v>
@@ -23134,7 +23134,7 @@
       </c>
       <c r="D585" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6644205000</v>
+        <v>106.644205000</v>
       </c>
       <c r="E585" s="4">
         <v>10739389999</v>
@@ -23156,7 +23156,7 @@
       </c>
       <c r="D586" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6644205000</v>
+        <v>106.644205000</v>
       </c>
       <c r="E586" s="4">
         <v>10739389999</v>
@@ -23178,7 +23178,7 @@
       </c>
       <c r="D587" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6650815644</v>
+        <v>106.650815644</v>
       </c>
       <c r="E587" s="4">
         <v>10741963059</v>
@@ -23200,7 +23200,7 @@
       </c>
       <c r="D588" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6650655937</v>
+        <v>106.650655937</v>
       </c>
       <c r="E588" s="4">
         <v>10741864893</v>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="D589" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6648711666</v>
+        <v>106.648711666</v>
       </c>
       <c r="E589" s="4">
         <v>10741336667</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="D590" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6650547306</v>
+        <v>106.650547306</v>
       </c>
       <c r="E590" s="4">
         <v>10741700745</v>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="D591" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651383334</v>
+        <v>106.651383334</v>
       </c>
       <c r="E591" s="4">
         <v>10742125000</v>
@@ -23288,7 +23288,7 @@
       </c>
       <c r="D592" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651370060</v>
+        <v>106.651370060</v>
       </c>
       <c r="E592" s="4">
         <v>10742113979</v>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="D593" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651262067</v>
+        <v>106.651262067</v>
       </c>
       <c r="E593" s="4">
         <v>10742052998</v>
@@ -23332,7 +23332,7 @@
       </c>
       <c r="D594" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651054226</v>
+        <v>106.651054226</v>
       </c>
       <c r="E594" s="4">
         <v>10741931177</v>
@@ -23354,7 +23354,7 @@
       </c>
       <c r="D595" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651052144</v>
+        <v>106.651052144</v>
       </c>
       <c r="E595" s="4">
         <v>10741830279</v>
@@ -23376,7 +23376,7 @@
       </c>
       <c r="D596" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651176145</v>
+        <v>106.651176145</v>
       </c>
       <c r="E596" s="4">
         <v>10741723672</v>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="D597" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6648711666</v>
+        <v>106.648711666</v>
       </c>
       <c r="E597" s="4">
         <v>10741336667</v>
@@ -23420,7 +23420,7 @@
       </c>
       <c r="D598" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6653675527</v>
+        <v>106.653675527</v>
       </c>
       <c r="E598" s="4">
         <v>10742905617</v>
@@ -23442,7 +23442,7 @@
       </c>
       <c r="D599" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6653808632</v>
+        <v>106.653808632</v>
       </c>
       <c r="E599" s="4">
         <v>10742673033</v>
@@ -23464,7 +23464,7 @@
       </c>
       <c r="D600" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6651383334</v>
+        <v>106.651383334</v>
       </c>
       <c r="E600" s="4">
         <v>10742125000</v>
@@ -23486,7 +23486,7 @@
       </c>
       <c r="D601" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654023319</v>
+        <v>106.654023319</v>
       </c>
       <c r="E601" s="4">
         <v>10742778428</v>
@@ -23508,7 +23508,7 @@
       </c>
       <c r="D602" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654309830</v>
+        <v>106.654309830</v>
       </c>
       <c r="E602" s="4">
         <v>10742920781</v>
@@ -23530,7 +23530,7 @@
       </c>
       <c r="D603" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654627755</v>
+        <v>106.654627755</v>
       </c>
       <c r="E603" s="4">
         <v>10743079713</v>
@@ -23552,7 +23552,7 @@
       </c>
       <c r="D604" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654871831</v>
+        <v>106.654871831</v>
       </c>
       <c r="E604" s="4">
         <v>10743207139</v>
@@ -23574,7 +23574,7 @@
       </c>
       <c r="D605" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654757235</v>
+        <v>106.654757235</v>
       </c>
       <c r="E605" s="4">
         <v>10743451677</v>
@@ -23596,7 +23596,7 @@
       </c>
       <c r="D606" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654588021</v>
+        <v>106.654588021</v>
       </c>
       <c r="E606" s="4">
         <v>10743348029</v>
@@ -23618,7 +23618,7 @@
       </c>
       <c r="D607" s="23" t="str">
         <f t="shared" si="3"/>
-        <v>10.6654452628</v>
+        <v>106.654452628</v>
       </c>
       <c r="E607" s="4">
         <v>10743285554</v>
@@ -23639,8 +23639,8 @@
         <v>10.736547729</v>
       </c>
       <c r="D608" s="23" t="str">
-        <f t="shared" ref="D608:D663" si="5">LEFT(F608,2)&amp;"."&amp;RIGHT(F608,LEN(F608)-2)</f>
-        <v>10.6653933643</v>
+        <f t="shared" si="3"/>
+        <v>106.653933643</v>
       </c>
       <c r="E608" s="4">
         <v>10736547729</v>
@@ -23661,8 +23661,8 @@
         <v>10.736804021</v>
       </c>
       <c r="D609" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653773500</v>
+        <f t="shared" si="3"/>
+        <v>106.653773500</v>
       </c>
       <c r="E609" s="4">
         <v>10736804021</v>
@@ -23683,8 +23683,8 @@
         <v>10.737123400</v>
       </c>
       <c r="D610" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653586309</v>
+        <f t="shared" si="3"/>
+        <v>106.653586309</v>
       </c>
       <c r="E610" s="4">
         <v>10737123400</v>
@@ -23705,8 +23705,8 @@
         <v>10.737390755</v>
       </c>
       <c r="D611" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653477432</v>
+        <f t="shared" si="3"/>
+        <v>106.653477432</v>
       </c>
       <c r="E611" s="4">
         <v>10737390755</v>
@@ -23727,8 +23727,8 @@
         <v>10.737701841</v>
       </c>
       <c r="D612" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653466308</v>
+        <f t="shared" si="3"/>
+        <v>106.653466308</v>
       </c>
       <c r="E612" s="4">
         <v>10737701841</v>
@@ -23749,8 +23749,8 @@
         <v>10.737967314</v>
       </c>
       <c r="D613" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653450259</v>
+        <f t="shared" si="3"/>
+        <v>106.653450259</v>
       </c>
       <c r="E613" s="4">
         <v>10737967314</v>
@@ -23771,8 +23771,8 @@
         <v>10.737036733</v>
       </c>
       <c r="D614" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653604844</v>
+        <f t="shared" si="3"/>
+        <v>106.653604844</v>
       </c>
       <c r="E614" s="4">
         <v>10737036733</v>
@@ -23793,8 +23793,8 @@
         <v>10.736979884</v>
       </c>
       <c r="D615" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653532127</v>
+        <f t="shared" si="3"/>
+        <v>106.653532127</v>
       </c>
       <c r="E615" s="4">
         <v>10736979884</v>
@@ -23815,8 +23815,8 @@
         <v>10.736395654</v>
       </c>
       <c r="D616" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653550629</v>
+        <f t="shared" si="3"/>
+        <v>106.653550629</v>
       </c>
       <c r="E616" s="4">
         <v>10736395654</v>
@@ -23837,8 +23837,8 @@
         <v>10.736089608</v>
       </c>
       <c r="D617" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653564502</v>
+        <f t="shared" si="3"/>
+        <v>106.653564502</v>
       </c>
       <c r="E617" s="4">
         <v>10736089608</v>
@@ -23859,8 +23859,8 @@
         <v>10.735950312</v>
       </c>
       <c r="D618" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653567934</v>
+        <f t="shared" si="3"/>
+        <v>106.653567934</v>
       </c>
       <c r="E618" s="4">
         <v>10735950312</v>
@@ -23881,8 +23881,8 @@
         <v>10.735679599</v>
       </c>
       <c r="D619" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653599103</v>
+        <f t="shared" si="3"/>
+        <v>106.653599103</v>
       </c>
       <c r="E619" s="4">
         <v>10735679599</v>
@@ -23903,8 +23903,8 @@
         <v>10.735571406</v>
       </c>
       <c r="D620" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653613333</v>
+        <f t="shared" si="3"/>
+        <v>106.653613333</v>
       </c>
       <c r="E620" s="4">
         <v>10735571406</v>
@@ -23925,8 +23925,8 @@
         <v>10.735382214</v>
       </c>
       <c r="D621" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653637485</v>
+        <f t="shared" si="3"/>
+        <v>106.653637485</v>
       </c>
       <c r="E621" s="4">
         <v>10735382214</v>
@@ -23947,8 +23947,8 @@
         <v>10.735200117</v>
       </c>
       <c r="D622" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653669136</v>
+        <f t="shared" si="3"/>
+        <v>106.653669136</v>
       </c>
       <c r="E622" s="4">
         <v>10735200117</v>
@@ -23969,8 +23969,8 @@
         <v>10.735859999</v>
       </c>
       <c r="D623" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653483333</v>
+        <f t="shared" si="3"/>
+        <v>106.653483333</v>
       </c>
       <c r="E623" s="4">
         <v>10735859999</v>
@@ -23991,8 +23991,8 @@
         <v>10.735936216</v>
       </c>
       <c r="D624" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653313266</v>
+        <f t="shared" si="3"/>
+        <v>106.653313266</v>
       </c>
       <c r="E624" s="4">
         <v>10735936216</v>
@@ -24013,8 +24013,8 @@
         <v>10.735924439</v>
       </c>
       <c r="D625" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653109593</v>
+        <f t="shared" si="3"/>
+        <v>106.653109593</v>
       </c>
       <c r="E625" s="4">
         <v>10735924439</v>
@@ -24035,8 +24035,8 @@
         <v>10.736308333</v>
       </c>
       <c r="D626" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6653250000</v>
+        <f t="shared" si="3"/>
+        <v>106.653250000</v>
       </c>
       <c r="E626" s="4">
         <v>10736308333</v>
@@ -24057,8 +24057,8 @@
         <v>10.736198173</v>
       </c>
       <c r="D627" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657899109</v>
+        <f t="shared" si="3"/>
+        <v>106.657899109</v>
       </c>
       <c r="E627" s="4">
         <v>10736198173</v>
@@ -24079,8 +24079,8 @@
         <v>10.736191841</v>
       </c>
       <c r="D628" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657691051</v>
+        <f t="shared" si="3"/>
+        <v>106.657691051</v>
       </c>
       <c r="E628" s="4">
         <v>10736191841</v>
@@ -24101,8 +24101,8 @@
         <v>10.736147375</v>
       </c>
       <c r="D629" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657501917</v>
+        <f t="shared" si="3"/>
+        <v>106.657501917</v>
       </c>
       <c r="E629" s="4">
         <v>10736147375</v>
@@ -24123,8 +24123,8 @@
         <v>10.736143080</v>
       </c>
       <c r="D630" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657298731</v>
+        <f t="shared" si="3"/>
+        <v>106.657298731</v>
       </c>
       <c r="E630" s="4">
         <v>10736143080</v>
@@ -24145,8 +24145,8 @@
         <v>10.736147385</v>
       </c>
       <c r="D631" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657106741</v>
+        <f t="shared" si="3"/>
+        <v>106.657106741</v>
       </c>
       <c r="E631" s="4">
         <v>10736147385</v>
@@ -24167,8 +24167,8 @@
         <v>10.736171062</v>
       </c>
       <c r="D632" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6656968129</v>
+        <f t="shared" si="3"/>
+        <v>106.656968129</v>
       </c>
       <c r="E632" s="4">
         <v>10736171062</v>
@@ -24189,8 +24189,8 @@
         <v>10.736160120</v>
       </c>
       <c r="D633" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6656770990</v>
+        <f t="shared" si="3"/>
+        <v>106.656770990</v>
       </c>
       <c r="E633" s="4">
         <v>10736160120</v>
@@ -24211,8 +24211,8 @@
         <v>10.735892861</v>
       </c>
       <c r="D634" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657693403</v>
+        <f t="shared" si="3"/>
+        <v>106.657693403</v>
       </c>
       <c r="E634" s="4">
         <v>10735892861</v>
@@ -24233,8 +24233,8 @@
         <v>10.735646134</v>
       </c>
       <c r="D635" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657691604</v>
+        <f t="shared" si="3"/>
+        <v>106.657691604</v>
       </c>
       <c r="E635" s="4">
         <v>10735646134</v>
@@ -24255,8 +24255,8 @@
         <v>10.735428935</v>
       </c>
       <c r="D636" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657721250</v>
+        <f t="shared" si="3"/>
+        <v>106.657721250</v>
       </c>
       <c r="E636" s="4">
         <v>10735428935</v>
@@ -24277,8 +24277,8 @@
         <v>10.735425966</v>
       </c>
       <c r="D637" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657445006</v>
+        <f t="shared" si="3"/>
+        <v>106.657445006</v>
       </c>
       <c r="E637" s="4">
         <v>10735425966</v>
@@ -24299,8 +24299,8 @@
         <v>10.735379041</v>
       </c>
       <c r="D638" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657380339</v>
+        <f t="shared" si="3"/>
+        <v>106.657380339</v>
       </c>
       <c r="E638" s="4">
         <v>10735379041</v>
@@ -24321,8 +24321,8 @@
         <v>10.735425379</v>
       </c>
       <c r="D639" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657192396</v>
+        <f t="shared" si="3"/>
+        <v>106.657192396</v>
       </c>
       <c r="E639" s="4">
         <v>10735425379</v>
@@ -24343,8 +24343,8 @@
         <v>10.735441891</v>
       </c>
       <c r="D640" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657104415</v>
+        <f t="shared" si="3"/>
+        <v>106.657104415</v>
       </c>
       <c r="E640" s="4">
         <v>10735441891</v>
@@ -24365,8 +24365,8 @@
         <v>10.735442347</v>
       </c>
       <c r="D641" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6657018311</v>
+        <f t="shared" si="3"/>
+        <v>106.657018311</v>
       </c>
       <c r="E641" s="4">
         <v>10735442347</v>
@@ -24387,8 +24387,8 @@
         <v>10.735420052</v>
       </c>
       <c r="D642" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6656767670</v>
+        <f t="shared" si="3"/>
+        <v>106.656767670</v>
       </c>
       <c r="E642" s="4">
         <v>10735420052</v>
@@ -24409,8 +24409,8 @@
         <v>10.735411917</v>
       </c>
       <c r="D643" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6656588103</v>
+        <f t="shared" si="3"/>
+        <v>106.656588103</v>
       </c>
       <c r="E643" s="4">
         <v>10735411917</v>
@@ -24431,8 +24431,8 @@
         <v>10.733340000</v>
       </c>
       <c r="D644" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6656128333</v>
+        <f t="shared" si="3"/>
+        <v>106.656128333</v>
       </c>
       <c r="E644" s="4">
         <v>10733340000</v>
@@ -24453,8 +24453,8 @@
         <v>10.735108333</v>
       </c>
       <c r="D645" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>10.6656208334</v>
+        <f t="shared" ref="D645:D663" si="5">LEFT(F645,3)&amp;"."&amp;RIGHT(F645,LEN(F645)-3)</f>
+        <v>106.656208334</v>
       </c>
       <c r="E645" s="4">
         <v>10735108333</v>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="D646" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656208334</v>
+        <v>106.656208334</v>
       </c>
       <c r="E646" s="4">
         <v>10735108333</v>
@@ -24498,7 +24498,7 @@
       </c>
       <c r="D647" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656218246</v>
+        <v>106.656218246</v>
       </c>
       <c r="E647" s="4">
         <v>10733062585</v>
@@ -24520,7 +24520,7 @@
       </c>
       <c r="D648" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656464724</v>
+        <v>106.656464724</v>
       </c>
       <c r="E648" s="4">
         <v>10733075679</v>
@@ -24542,7 +24542,7 @@
       </c>
       <c r="D649" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656643530</v>
+        <v>106.656643530</v>
       </c>
       <c r="E649" s="4">
         <v>10733086270</v>
@@ -24564,7 +24564,7 @@
       </c>
       <c r="D650" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656924248</v>
+        <v>106.656924248</v>
       </c>
       <c r="E650" s="4">
         <v>10733100765</v>
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D651" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656994887</v>
+        <v>106.656994887</v>
       </c>
       <c r="E651" s="4">
         <v>10733116314</v>
@@ -24608,7 +24608,7 @@
       </c>
       <c r="D652" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6657152686</v>
+        <v>106.657152686</v>
       </c>
       <c r="E652" s="4">
         <v>10733100213</v>
@@ -24630,7 +24630,7 @@
       </c>
       <c r="D653" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6657318456</v>
+        <v>106.657318456</v>
       </c>
       <c r="E653" s="4">
         <v>10733108626</v>
@@ -24652,7 +24652,7 @@
       </c>
       <c r="D654" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656990879</v>
+        <v>106.656990879</v>
       </c>
       <c r="E654" s="4">
         <v>10732938935</v>
@@ -24674,7 +24674,7 @@
       </c>
       <c r="D655" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656958753</v>
+        <v>106.656958753</v>
       </c>
       <c r="E655" s="4">
         <v>10732820685</v>
@@ -24696,7 +24696,7 @@
       </c>
       <c r="D656" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6656964438</v>
+        <v>106.656964438</v>
       </c>
       <c r="E656" s="4">
         <v>10732611446</v>
@@ -24718,7 +24718,7 @@
       </c>
       <c r="D657" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6671090000</v>
+        <v>106.671090000</v>
       </c>
       <c r="E657" s="4">
         <v>10737903333</v>
@@ -24740,7 +24740,7 @@
       </c>
       <c r="D658" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6671076288</v>
+        <v>106.671076288</v>
       </c>
       <c r="E658" s="4">
         <v>10737863261</v>
@@ -24762,7 +24762,7 @@
       </c>
       <c r="D659" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6671357678</v>
+        <v>106.671357678</v>
       </c>
       <c r="E659" s="4">
         <v>10737977733</v>
@@ -24784,7 +24784,7 @@
       </c>
       <c r="D660" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6671474803</v>
+        <v>106.671474803</v>
       </c>
       <c r="E660" s="4">
         <v>10738008952</v>
@@ -24806,7 +24806,7 @@
       </c>
       <c r="D661" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6671794054</v>
+        <v>106.671794054</v>
       </c>
       <c r="E661" s="4">
         <v>10738136791</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="D662" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6672155612</v>
+        <v>106.672155612</v>
       </c>
       <c r="E662" s="4">
         <v>10738272834</v>
@@ -24850,7 +24850,7 @@
       </c>
       <c r="D663" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>10.6672552374</v>
+        <v>106.672552374</v>
       </c>
       <c r="E663" s="4">
         <v>10738424635</v>

--- a/data/khaosat.xlsx
+++ b/data/khaosat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cscctphcm-my.sharepoint.com/personal/gdcsbac_cscctphcm_onmicrosoft_com/Documents/webdemo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="13_ncr:1_{2EDB2D67-B674-4A3F-BBBF-6356067A4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB182F96-95E1-40BB-8198-5A51E25274A3}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="13_ncr:1_{2EDB2D67-B674-4A3F-BBBF-6356067A4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D34642C-F40D-45EE-A96C-CFE04A15DE0D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1266DFF-32F5-4B0B-A729-2A44814C55C6}"/>
   </bookViews>
@@ -5577,7 +5577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5728,19 +5728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5843,14 +5830,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5859,17 +5846,16 @@
     <xf numFmtId="164" fontId="13" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="78">
@@ -6286,8 +6272,8 @@
   <dimension ref="A1:P640"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B648" sqref="B648"/>
+      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J625" sqref="J625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12706,14 +12692,16 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="16"/>
+      <c r="A160" s="16">
+        <v>159</v>
+      </c>
       <c r="B160" t="s">
         <v>491</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="25" t="s">
         <v>1209</v>
       </c>
       <c r="E160" s="23"/>
@@ -12731,14 +12719,16 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
+      <c r="A161" s="20">
+        <v>160</v>
+      </c>
       <c r="B161" t="s">
         <v>492</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="25" t="s">
         <v>1210</v>
       </c>
       <c r="E161" s="23"/>
@@ -12756,14 +12746,16 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="16"/>
+      <c r="A162" s="16">
+        <v>161</v>
+      </c>
       <c r="B162" t="s">
         <v>493</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="25" t="s">
         <v>1211</v>
       </c>
       <c r="E162" s="23"/>
@@ -12781,14 +12773,16 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="20"/>
+      <c r="A163" s="20">
+        <v>162</v>
+      </c>
       <c r="B163" t="s">
         <v>494</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="25" t="s">
         <v>1212</v>
       </c>
       <c r="E163" s="23"/>
@@ -12806,14 +12800,16 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="16"/>
+      <c r="A164" s="16">
+        <v>163</v>
+      </c>
       <c r="B164" t="s">
         <v>495</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="D164" s="25" t="s">
         <v>1213</v>
       </c>
       <c r="E164" s="23"/>
@@ -12831,14 +12827,16 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
+      <c r="A165" s="20">
+        <v>164</v>
+      </c>
       <c r="B165" t="s">
         <v>496</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="D165" s="26" t="s">
+      <c r="D165" s="25" t="s">
         <v>1214</v>
       </c>
       <c r="E165" s="23"/>
@@ -12856,14 +12854,16 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="16"/>
+      <c r="A166" s="16">
+        <v>165</v>
+      </c>
       <c r="B166" t="s">
         <v>497</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="25" t="s">
         <v>1215</v>
       </c>
       <c r="E166" s="23"/>
@@ -12881,14 +12881,16 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="20"/>
+      <c r="A167" s="20">
+        <v>166</v>
+      </c>
       <c r="B167" t="s">
         <v>498</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="25" t="s">
         <v>1216</v>
       </c>
       <c r="E167" s="23"/>
@@ -12906,14 +12908,16 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="16"/>
+      <c r="A168" s="16">
+        <v>167</v>
+      </c>
       <c r="B168" t="s">
         <v>499</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="D168" s="26" t="s">
+      <c r="D168" s="25" t="s">
         <v>1217</v>
       </c>
       <c r="E168" s="23"/>
@@ -12931,14 +12935,16 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="20"/>
+      <c r="A169" s="20">
+        <v>168</v>
+      </c>
       <c r="B169" t="s">
         <v>500</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="25" t="s">
         <v>1218</v>
       </c>
       <c r="E169" s="23"/>
@@ -12956,14 +12962,16 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
+      <c r="A170" s="16">
+        <v>169</v>
+      </c>
       <c r="B170" t="s">
         <v>501</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="25" t="s">
         <v>1219</v>
       </c>
       <c r="E170" s="23"/>
@@ -12981,14 +12989,16 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
+      <c r="A171" s="20">
+        <v>170</v>
+      </c>
       <c r="B171" t="s">
         <v>502</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="25" t="s">
         <v>1220</v>
       </c>
       <c r="E171" s="23"/>
@@ -13006,14 +13016,16 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="20"/>
+      <c r="A172" s="16">
+        <v>171</v>
+      </c>
       <c r="B172" t="s">
         <v>1208</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="D172" s="26" t="s">
+      <c r="D172" s="25" t="s">
         <v>1222</v>
       </c>
       <c r="E172" s="23"/>
@@ -13031,14 +13043,16 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="16"/>
+      <c r="A173" s="20">
+        <v>172</v>
+      </c>
       <c r="B173" t="s">
         <v>503</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="25" t="s">
         <v>1223</v>
       </c>
       <c r="E173" s="23"/>
@@ -13056,14 +13070,16 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="20"/>
+      <c r="A174" s="16">
+        <v>173</v>
+      </c>
       <c r="B174" t="s">
         <v>504</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="25" t="s">
         <v>1224</v>
       </c>
       <c r="E174" s="23"/>
@@ -13081,14 +13097,16 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
+      <c r="A175" s="20">
+        <v>174</v>
+      </c>
       <c r="B175" t="s">
         <v>505</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="25" t="s">
         <v>1225</v>
       </c>
       <c r="E175" s="23"/>
@@ -13106,14 +13124,16 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
+      <c r="A176" s="16">
+        <v>175</v>
+      </c>
       <c r="B176" t="s">
         <v>506</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="D176" s="26" t="s">
+      <c r="D176" s="25" t="s">
         <v>1226</v>
       </c>
       <c r="E176" s="23"/>
@@ -13131,14 +13151,16 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="16"/>
+      <c r="A177" s="20">
+        <v>176</v>
+      </c>
       <c r="B177" t="s">
         <v>507</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="25" t="s">
         <v>1227</v>
       </c>
       <c r="E177" s="23"/>
@@ -13156,14 +13178,16 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="20"/>
+      <c r="A178" s="16">
+        <v>177</v>
+      </c>
       <c r="B178" t="s">
         <v>508</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="D178" s="25" t="s">
         <v>1228</v>
       </c>
       <c r="E178" s="23"/>
@@ -13181,14 +13205,16 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="16"/>
+      <c r="A179" s="20">
+        <v>178</v>
+      </c>
       <c r="B179" t="s">
         <v>509</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="D179" s="26" t="s">
+      <c r="D179" s="25" t="s">
         <v>1229</v>
       </c>
       <c r="E179" s="23"/>
@@ -13206,14 +13232,16 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
+      <c r="A180" s="16">
+        <v>179</v>
+      </c>
       <c r="B180" t="s">
         <v>510</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="D180" s="26" t="s">
+      <c r="D180" s="25" t="s">
         <v>1230</v>
       </c>
       <c r="E180" s="23"/>
@@ -13231,14 +13259,16 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="16"/>
+      <c r="A181" s="20">
+        <v>180</v>
+      </c>
       <c r="B181" t="s">
         <v>511</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D181" s="26" t="s">
+      <c r="D181" s="25" t="s">
         <v>1231</v>
       </c>
       <c r="E181" s="23"/>
@@ -13256,14 +13286,16 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="16"/>
+      <c r="A182" s="16">
+        <v>181</v>
+      </c>
       <c r="B182" t="s">
         <v>512</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="D182" s="26" t="s">
+      <c r="D182" s="25" t="s">
         <v>1232</v>
       </c>
       <c r="E182" s="23"/>
@@ -13281,14 +13313,16 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="20"/>
+      <c r="A183" s="20">
+        <v>182</v>
+      </c>
       <c r="B183" t="s">
         <v>513</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="D183" s="26" t="s">
+      <c r="D183" s="25" t="s">
         <v>1233</v>
       </c>
       <c r="E183" s="23"/>
@@ -13306,14 +13340,16 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="16"/>
+      <c r="A184" s="16">
+        <v>183</v>
+      </c>
       <c r="B184" t="s">
         <v>514</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="D184" s="25" t="s">
         <v>1234</v>
       </c>
       <c r="E184" s="23"/>
@@ -13331,14 +13367,16 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="16"/>
+      <c r="A185" s="20">
+        <v>184</v>
+      </c>
       <c r="B185" t="s">
         <v>515</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="D185" s="26" t="s">
+      <c r="D185" s="25" t="s">
         <v>1235</v>
       </c>
       <c r="E185" s="23"/>
@@ -13356,14 +13394,16 @@
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
+      <c r="A186" s="16">
+        <v>185</v>
+      </c>
       <c r="B186" t="s">
         <v>516</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="D186" s="26" t="s">
+      <c r="D186" s="25" t="s">
         <v>1236</v>
       </c>
       <c r="E186" s="23"/>
@@ -13381,14 +13421,16 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="16"/>
+      <c r="A187" s="20">
+        <v>186</v>
+      </c>
       <c r="B187" t="s">
         <v>517</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="D187" s="26" t="s">
+      <c r="D187" s="25" t="s">
         <v>1237</v>
       </c>
       <c r="E187" s="23"/>
@@ -13406,14 +13448,16 @@
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="20"/>
+      <c r="A188" s="16">
+        <v>187</v>
+      </c>
       <c r="B188" t="s">
         <v>518</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="D188" s="26" t="s">
+      <c r="D188" s="25" t="s">
         <v>1238</v>
       </c>
       <c r="E188" s="23"/>
@@ -13431,14 +13475,16 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="16"/>
+      <c r="A189" s="20">
+        <v>188</v>
+      </c>
       <c r="B189" t="s">
         <v>519</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="D189" s="26" t="s">
+      <c r="D189" s="25" t="s">
         <v>1239</v>
       </c>
       <c r="E189" s="23"/>
@@ -13456,14 +13502,16 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="20"/>
+      <c r="A190" s="16">
+        <v>189</v>
+      </c>
       <c r="B190" t="s">
         <v>520</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="25" t="s">
         <v>1240</v>
       </c>
       <c r="E190" s="23"/>
@@ -13481,14 +13529,16 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="16"/>
+      <c r="A191" s="20">
+        <v>190</v>
+      </c>
       <c r="B191" t="s">
         <v>521</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="D191" s="26" t="s">
+      <c r="D191" s="25" t="s">
         <v>1241</v>
       </c>
       <c r="E191" s="23"/>
@@ -13506,14 +13556,16 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
+      <c r="A192" s="16">
+        <v>191</v>
+      </c>
       <c r="B192" t="s">
         <v>522</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="D192" s="26" t="s">
+      <c r="D192" s="25" t="s">
         <v>1242</v>
       </c>
       <c r="E192" s="23"/>
@@ -13531,14 +13583,16 @@
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="16"/>
+      <c r="A193" s="20">
+        <v>192</v>
+      </c>
       <c r="B193" t="s">
         <v>523</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="D193" s="26" t="s">
+      <c r="D193" s="25" t="s">
         <v>1243</v>
       </c>
       <c r="E193" s="23"/>
@@ -13556,14 +13610,16 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="20"/>
+      <c r="A194" s="16">
+        <v>193</v>
+      </c>
       <c r="B194" t="s">
         <v>524</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="D194" s="26" t="s">
+      <c r="D194" s="25" t="s">
         <v>1244</v>
       </c>
       <c r="E194" s="23"/>
@@ -13581,14 +13637,16 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="16"/>
+      <c r="A195" s="20">
+        <v>194</v>
+      </c>
       <c r="B195" t="s">
         <v>525</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="D195" s="26" t="s">
+      <c r="D195" s="25" t="s">
         <v>1245</v>
       </c>
       <c r="E195" s="23"/>
@@ -13606,14 +13664,16 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
+      <c r="A196" s="16">
+        <v>195</v>
+      </c>
       <c r="B196" t="s">
         <v>526</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="D196" s="26" t="s">
+      <c r="D196" s="25" t="s">
         <v>1246</v>
       </c>
       <c r="E196" s="23"/>
@@ -13631,14 +13691,16 @@
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="16"/>
+      <c r="A197" s="20">
+        <v>196</v>
+      </c>
       <c r="B197" t="s">
         <v>527</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="D197" s="26" t="s">
+      <c r="D197" s="25" t="s">
         <v>1247</v>
       </c>
       <c r="E197" s="23"/>
@@ -13656,14 +13718,16 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="20"/>
+      <c r="A198" s="16">
+        <v>197</v>
+      </c>
       <c r="B198" t="s">
         <v>528</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="D198" s="26" t="s">
+      <c r="D198" s="25" t="s">
         <v>1248</v>
       </c>
       <c r="E198" s="23"/>
@@ -13681,14 +13745,16 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A199" s="16"/>
+      <c r="A199" s="20">
+        <v>198</v>
+      </c>
       <c r="B199" t="s">
         <v>529</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="25" t="s">
         <v>1249</v>
       </c>
       <c r="E199" s="23"/>
@@ -13706,14 +13772,16 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A200" s="20"/>
+      <c r="A200" s="16">
+        <v>199</v>
+      </c>
       <c r="B200" t="s">
         <v>530</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D200" s="25" t="s">
         <v>1250</v>
       </c>
       <c r="E200" s="23"/>
@@ -13731,14 +13799,16 @@
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A201" s="16"/>
+      <c r="A201" s="20">
+        <v>200</v>
+      </c>
       <c r="B201" t="s">
         <v>531</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="D201" s="26" t="s">
+      <c r="D201" s="25" t="s">
         <v>1251</v>
       </c>
       <c r="E201" s="23"/>
@@ -13756,14 +13826,16 @@
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
+      <c r="A202" s="16">
+        <v>201</v>
+      </c>
       <c r="B202" t="s">
         <v>532</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="D202" s="26" t="s">
+      <c r="D202" s="25" t="s">
         <v>1252</v>
       </c>
       <c r="E202" s="23"/>
@@ -13781,14 +13853,16 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A203" s="16"/>
+      <c r="A203" s="20">
+        <v>202</v>
+      </c>
       <c r="B203" t="s">
         <v>533</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="D203" s="26" t="s">
+      <c r="D203" s="25" t="s">
         <v>1253</v>
       </c>
       <c r="E203" s="23"/>
@@ -13806,14 +13880,16 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A204" s="20"/>
+      <c r="A204" s="16">
+        <v>203</v>
+      </c>
       <c r="B204" t="s">
         <v>534</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="D204" s="26" t="s">
+      <c r="D204" s="25" t="s">
         <v>1254</v>
       </c>
       <c r="E204" s="23"/>
@@ -13831,14 +13907,16 @@
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A205" s="16"/>
+      <c r="A205" s="20">
+        <v>204</v>
+      </c>
       <c r="B205" t="s">
         <v>535</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="D205" s="25" t="s">
         <v>1255</v>
       </c>
       <c r="E205" s="23"/>
@@ -13856,14 +13934,16 @@
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
+      <c r="A206" s="16">
+        <v>205</v>
+      </c>
       <c r="B206" t="s">
         <v>536</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="D206" s="25" t="s">
         <v>1256</v>
       </c>
       <c r="E206" s="23"/>
@@ -13881,14 +13961,16 @@
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A207" s="16"/>
+      <c r="A207" s="20">
+        <v>206</v>
+      </c>
       <c r="B207" t="s">
         <v>537</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="D207" s="25" t="s">
         <v>1257</v>
       </c>
       <c r="E207" s="23"/>
@@ -13906,14 +13988,16 @@
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A208" s="20"/>
+      <c r="A208" s="16">
+        <v>207</v>
+      </c>
       <c r="B208" t="s">
         <v>538</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="D208" s="26" t="s">
+      <c r="D208" s="25" t="s">
         <v>1258</v>
       </c>
       <c r="E208" s="23"/>
@@ -13931,14 +14015,16 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A209" s="16"/>
+      <c r="A209" s="20">
+        <v>208</v>
+      </c>
       <c r="B209" t="s">
         <v>539</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="D209" s="26" t="s">
+      <c r="D209" s="25" t="s">
         <v>1259</v>
       </c>
       <c r="E209" s="23"/>
@@ -13956,14 +14042,16 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A210" s="20"/>
+      <c r="A210" s="16">
+        <v>209</v>
+      </c>
       <c r="B210" t="s">
         <v>540</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="D210" s="26" t="s">
+      <c r="D210" s="25" t="s">
         <v>1260</v>
       </c>
       <c r="E210" s="23"/>
@@ -13981,14 +14069,16 @@
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A211" s="16"/>
+      <c r="A211" s="20">
+        <v>210</v>
+      </c>
       <c r="B211" t="s">
         <v>541</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="D211" s="26" t="s">
+      <c r="D211" s="25" t="s">
         <v>1261</v>
       </c>
       <c r="E211" s="23"/>
@@ -14006,14 +14096,16 @@
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
+      <c r="A212" s="16">
+        <v>211</v>
+      </c>
       <c r="B212" t="s">
         <v>542</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="D212" s="26" t="s">
+      <c r="D212" s="25" t="s">
         <v>1262</v>
       </c>
       <c r="E212" s="23"/>
@@ -14031,14 +14123,16 @@
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A213" s="16"/>
+      <c r="A213" s="20">
+        <v>212</v>
+      </c>
       <c r="B213" t="s">
         <v>543</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="D213" s="26" t="s">
+      <c r="D213" s="25" t="s">
         <v>1263</v>
       </c>
       <c r="E213" s="23"/>
@@ -14056,14 +14150,16 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A214" s="20"/>
+      <c r="A214" s="16">
+        <v>213</v>
+      </c>
       <c r="B214" t="s">
         <v>544</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="D214" s="26" t="s">
+      <c r="D214" s="25" t="s">
         <v>1264</v>
       </c>
       <c r="E214" s="23"/>
@@ -14081,14 +14177,16 @@
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A215" s="16"/>
+      <c r="A215" s="20">
+        <v>214</v>
+      </c>
       <c r="B215" t="s">
         <v>545</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="D215" s="26" t="s">
+      <c r="D215" s="25" t="s">
         <v>1265</v>
       </c>
       <c r="E215" s="23"/>
@@ -14106,14 +14204,16 @@
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A216" s="20"/>
+      <c r="A216" s="16">
+        <v>215</v>
+      </c>
       <c r="B216" t="s">
         <v>546</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="D216" s="26" t="s">
+      <c r="D216" s="25" t="s">
         <v>1266</v>
       </c>
       <c r="E216" s="23"/>
@@ -14131,14 +14231,16 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A217" s="16"/>
+      <c r="A217" s="20">
+        <v>216</v>
+      </c>
       <c r="B217" t="s">
         <v>547</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="D217" s="26" t="s">
+      <c r="D217" s="25" t="s">
         <v>1267</v>
       </c>
       <c r="E217" s="23"/>
@@ -14156,14 +14258,16 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
+      <c r="A218" s="16">
+        <v>217</v>
+      </c>
       <c r="B218" t="s">
         <v>548</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="D218" s="26" t="s">
+      <c r="D218" s="25" t="s">
         <v>1268</v>
       </c>
       <c r="E218" s="23"/>
@@ -14181,14 +14285,16 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A219" s="16"/>
+      <c r="A219" s="20">
+        <v>218</v>
+      </c>
       <c r="B219" t="s">
         <v>549</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D219" s="26" t="s">
+      <c r="D219" s="25" t="s">
         <v>1269</v>
       </c>
       <c r="E219" s="23"/>
@@ -14206,14 +14312,16 @@
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A220" s="20"/>
+      <c r="A220" s="16">
+        <v>219</v>
+      </c>
       <c r="B220" t="s">
         <v>550</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="D220" s="26" t="s">
+      <c r="D220" s="25" t="s">
         <v>1270</v>
       </c>
       <c r="E220" s="23"/>
@@ -14231,14 +14339,16 @@
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A221" s="16"/>
+      <c r="A221" s="20">
+        <v>220</v>
+      </c>
       <c r="B221" t="s">
         <v>551</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="D221" s="26" t="s">
+      <c r="D221" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="E221" s="23"/>
@@ -14256,14 +14366,16 @@
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
+      <c r="A222" s="16">
+        <v>221</v>
+      </c>
       <c r="B222" t="s">
         <v>552</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="D222" s="26" t="s">
+      <c r="D222" s="25" t="s">
         <v>1272</v>
       </c>
       <c r="E222" s="23"/>
@@ -14281,14 +14393,16 @@
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A223" s="16"/>
+      <c r="A223" s="20">
+        <v>222</v>
+      </c>
       <c r="B223" t="s">
         <v>553</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="D223" s="26" t="s">
+      <c r="D223" s="25" t="s">
         <v>1273</v>
       </c>
       <c r="E223" s="23"/>
@@ -14306,14 +14420,16 @@
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A224" s="20"/>
+      <c r="A224" s="16">
+        <v>223</v>
+      </c>
       <c r="B224" t="s">
         <v>554</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="D224" s="26" t="s">
+      <c r="D224" s="25" t="s">
         <v>1274</v>
       </c>
       <c r="E224" s="23"/>
@@ -14331,14 +14447,16 @@
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A225" s="16"/>
+      <c r="A225" s="20">
+        <v>224</v>
+      </c>
       <c r="B225" t="s">
         <v>555</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="D225" s="26" t="s">
+      <c r="D225" s="25" t="s">
         <v>1275</v>
       </c>
       <c r="E225" s="23"/>
@@ -14356,14 +14474,16 @@
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A226" s="20"/>
+      <c r="A226" s="16">
+        <v>225</v>
+      </c>
       <c r="B226" t="s">
         <v>556</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="D226" s="26" t="s">
+      <c r="D226" s="25" t="s">
         <v>1276</v>
       </c>
       <c r="E226" s="23"/>
@@ -14381,14 +14501,16 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A227" s="16"/>
+      <c r="A227" s="20">
+        <v>226</v>
+      </c>
       <c r="B227" t="s">
         <v>557</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="D227" s="26" t="s">
+      <c r="D227" s="25" t="s">
         <v>1277</v>
       </c>
       <c r="E227" s="23"/>
@@ -14406,14 +14528,16 @@
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
+      <c r="A228" s="16">
+        <v>227</v>
+      </c>
       <c r="B228" t="s">
         <v>558</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="D228" s="26" t="s">
+      <c r="D228" s="25" t="s">
         <v>1278</v>
       </c>
       <c r="E228" s="23"/>
@@ -14431,14 +14555,16 @@
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A229" s="16"/>
+      <c r="A229" s="20">
+        <v>228</v>
+      </c>
       <c r="B229" t="s">
         <v>559</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="D229" s="26" t="s">
+      <c r="D229" s="25" t="s">
         <v>1279</v>
       </c>
       <c r="E229" s="23"/>
@@ -14456,14 +14582,16 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A230" s="20"/>
+      <c r="A230" s="16">
+        <v>229</v>
+      </c>
       <c r="B230" t="s">
         <v>560</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="D230" s="26" t="s">
+      <c r="D230" s="25" t="s">
         <v>1280</v>
       </c>
       <c r="E230" s="23"/>
@@ -14481,14 +14609,16 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A231" s="16"/>
+      <c r="A231" s="20">
+        <v>230</v>
+      </c>
       <c r="B231" t="s">
         <v>561</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="D231" s="26" t="s">
+      <c r="D231" s="25" t="s">
         <v>1281</v>
       </c>
       <c r="E231" s="23"/>
@@ -14506,14 +14636,16 @@
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
+      <c r="A232" s="16">
+        <v>231</v>
+      </c>
       <c r="B232" t="s">
         <v>562</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="D232" s="26" t="s">
+      <c r="D232" s="25" t="s">
         <v>1282</v>
       </c>
       <c r="E232" s="23"/>
@@ -14531,14 +14663,16 @@
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A233" s="16"/>
+      <c r="A233" s="20">
+        <v>232</v>
+      </c>
       <c r="B233" t="s">
         <v>563</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="D233" s="26" t="s">
+      <c r="D233" s="25" t="s">
         <v>1283</v>
       </c>
       <c r="E233" s="23"/>
@@ -14556,14 +14690,16 @@
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A234" s="20"/>
+      <c r="A234" s="16">
+        <v>233</v>
+      </c>
       <c r="B234" t="s">
         <v>564</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="D234" s="26" t="s">
+      <c r="D234" s="25" t="s">
         <v>1284</v>
       </c>
       <c r="E234" s="23"/>
@@ -14581,14 +14717,16 @@
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A235" s="16"/>
+      <c r="A235" s="20">
+        <v>234</v>
+      </c>
       <c r="B235" t="s">
         <v>565</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="D235" s="26" t="s">
+      <c r="D235" s="25" t="s">
         <v>1285</v>
       </c>
       <c r="E235" s="23"/>
@@ -14606,14 +14744,16 @@
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A236" s="20"/>
+      <c r="A236" s="16">
+        <v>235</v>
+      </c>
       <c r="B236" t="s">
         <v>566</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D236" s="26" t="s">
+      <c r="D236" s="25" t="s">
         <v>1286</v>
       </c>
       <c r="E236" s="23"/>
@@ -14631,14 +14771,16 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A237" s="16"/>
+      <c r="A237" s="20">
+        <v>236</v>
+      </c>
       <c r="B237" t="s">
         <v>567</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="D237" s="26" t="s">
+      <c r="D237" s="25" t="s">
         <v>1287</v>
       </c>
       <c r="E237" s="23"/>
@@ -14656,14 +14798,16 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
+      <c r="A238" s="16">
+        <v>237</v>
+      </c>
       <c r="B238" t="s">
         <v>568</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="D238" s="26" t="s">
+      <c r="D238" s="25" t="s">
         <v>1288</v>
       </c>
       <c r="E238" s="23"/>
@@ -14681,14 +14825,16 @@
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A239" s="16"/>
+      <c r="A239" s="20">
+        <v>238</v>
+      </c>
       <c r="B239" t="s">
         <v>569</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="D239" s="26" t="s">
+      <c r="D239" s="25" t="s">
         <v>1289</v>
       </c>
       <c r="E239" s="23"/>
@@ -14706,14 +14852,16 @@
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A240" s="20"/>
+      <c r="A240" s="16">
+        <v>239</v>
+      </c>
       <c r="B240" t="s">
         <v>570</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="D240" s="26" t="s">
+      <c r="D240" s="25" t="s">
         <v>1290</v>
       </c>
       <c r="E240" s="23"/>
@@ -14731,14 +14879,16 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A241" s="16"/>
+      <c r="A241" s="20">
+        <v>240</v>
+      </c>
       <c r="B241" t="s">
         <v>571</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="D241" s="26" t="s">
+      <c r="D241" s="25" t="s">
         <v>1291</v>
       </c>
       <c r="E241" s="23"/>
@@ -14756,14 +14906,16 @@
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A242" s="20"/>
+      <c r="A242" s="16">
+        <v>241</v>
+      </c>
       <c r="B242" t="s">
         <v>572</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="D242" s="26" t="s">
+      <c r="D242" s="25" t="s">
         <v>1292</v>
       </c>
       <c r="E242" s="23"/>
@@ -14781,14 +14933,16 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A243" s="16"/>
+      <c r="A243" s="20">
+        <v>242</v>
+      </c>
       <c r="B243" t="s">
         <v>573</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="D243" s="26" t="s">
+      <c r="D243" s="25" t="s">
         <v>1293</v>
       </c>
       <c r="E243" s="23"/>
@@ -14806,14 +14960,16 @@
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A244" s="20"/>
+      <c r="A244" s="16">
+        <v>243</v>
+      </c>
       <c r="B244" t="s">
         <v>574</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="D244" s="26" t="s">
+      <c r="D244" s="25" t="s">
         <v>1294</v>
       </c>
       <c r="E244" s="23"/>
@@ -14831,14 +14987,16 @@
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A245" s="16"/>
+      <c r="A245" s="20">
+        <v>244</v>
+      </c>
       <c r="B245" t="s">
         <v>575</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="D245" s="26" t="s">
+      <c r="D245" s="25" t="s">
         <v>1295</v>
       </c>
       <c r="E245" s="23"/>
@@ -14856,14 +15014,16 @@
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A246" s="20"/>
+      <c r="A246" s="16">
+        <v>245</v>
+      </c>
       <c r="B246" t="s">
         <v>576</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="D246" s="26" t="s">
+      <c r="D246" s="25" t="s">
         <v>1296</v>
       </c>
       <c r="E246" s="23"/>
@@ -14881,14 +15041,16 @@
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A247" s="16"/>
+      <c r="A247" s="20">
+        <v>246</v>
+      </c>
       <c r="B247" t="s">
         <v>577</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="D247" s="26" t="s">
+      <c r="D247" s="25" t="s">
         <v>1297</v>
       </c>
       <c r="E247" s="23"/>
@@ -14906,14 +15068,16 @@
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A248" s="20"/>
+      <c r="A248" s="16">
+        <v>247</v>
+      </c>
       <c r="B248" t="s">
         <v>578</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="D248" s="26" t="s">
+      <c r="D248" s="25" t="s">
         <v>1298</v>
       </c>
       <c r="E248" s="23"/>
@@ -14931,14 +15095,16 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A249" s="16"/>
+      <c r="A249" s="20">
+        <v>248</v>
+      </c>
       <c r="B249" t="s">
         <v>579</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="D249" s="26" t="s">
+      <c r="D249" s="25" t="s">
         <v>1299</v>
       </c>
       <c r="E249" s="23"/>
@@ -14956,14 +15122,16 @@
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A250" s="20"/>
+      <c r="A250" s="16">
+        <v>249</v>
+      </c>
       <c r="B250" t="s">
         <v>580</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="D250" s="26" t="s">
+      <c r="D250" s="25" t="s">
         <v>1300</v>
       </c>
       <c r="E250" s="23"/>
@@ -14981,14 +15149,16 @@
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A251" s="16"/>
+      <c r="A251" s="20">
+        <v>250</v>
+      </c>
       <c r="B251" t="s">
         <v>581</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="D251" s="26" t="s">
+      <c r="D251" s="25" t="s">
         <v>1301</v>
       </c>
       <c r="E251" s="23"/>
@@ -15006,14 +15176,16 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A252" s="20"/>
+      <c r="A252" s="16">
+        <v>251</v>
+      </c>
       <c r="B252" t="s">
         <v>582</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="D252" s="26" t="s">
+      <c r="D252" s="25" t="s">
         <v>1302</v>
       </c>
       <c r="E252" s="23"/>
@@ -15031,14 +15203,16 @@
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A253" s="16"/>
+      <c r="A253" s="20">
+        <v>252</v>
+      </c>
       <c r="B253" t="s">
         <v>583</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="D253" s="26" t="s">
+      <c r="D253" s="25" t="s">
         <v>1303</v>
       </c>
       <c r="E253" s="23"/>
@@ -15056,14 +15230,16 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A254" s="20"/>
+      <c r="A254" s="16">
+        <v>253</v>
+      </c>
       <c r="B254" t="s">
         <v>584</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D254" s="26" t="s">
+      <c r="D254" s="25" t="s">
         <v>1304</v>
       </c>
       <c r="E254" s="23"/>
@@ -15081,14 +15257,16 @@
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A255" s="16"/>
+      <c r="A255" s="20">
+        <v>254</v>
+      </c>
       <c r="B255" t="s">
         <v>585</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="D255" s="26" t="s">
+      <c r="D255" s="25" t="s">
         <v>1305</v>
       </c>
       <c r="E255" s="23"/>
@@ -15106,14 +15284,16 @@
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A256" s="20"/>
+      <c r="A256" s="16">
+        <v>255</v>
+      </c>
       <c r="B256" t="s">
         <v>586</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="D256" s="26" t="s">
+      <c r="D256" s="25" t="s">
         <v>1306</v>
       </c>
       <c r="E256" s="23"/>
@@ -15131,14 +15311,16 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A257" s="16"/>
+      <c r="A257" s="20">
+        <v>256</v>
+      </c>
       <c r="B257" t="s">
         <v>587</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="D257" s="26" t="s">
+      <c r="D257" s="25" t="s">
         <v>1307</v>
       </c>
       <c r="E257" s="23"/>
@@ -15156,14 +15338,16 @@
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A258" s="20"/>
+      <c r="A258" s="16">
+        <v>257</v>
+      </c>
       <c r="B258" t="s">
         <v>588</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="D258" s="26" t="s">
+      <c r="D258" s="25" t="s">
         <v>1308</v>
       </c>
       <c r="E258" s="23"/>
@@ -15181,14 +15365,16 @@
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A259" s="16"/>
+      <c r="A259" s="20">
+        <v>258</v>
+      </c>
       <c r="B259" t="s">
         <v>589</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="D259" s="26" t="s">
+      <c r="D259" s="25" t="s">
         <v>1309</v>
       </c>
       <c r="E259" s="23"/>
@@ -15206,14 +15392,16 @@
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A260" s="20"/>
+      <c r="A260" s="16">
+        <v>259</v>
+      </c>
       <c r="B260" t="s">
         <v>590</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="D260" s="26" t="s">
+      <c r="D260" s="25" t="s">
         <v>1310</v>
       </c>
       <c r="E260" s="23"/>
@@ -15231,14 +15419,16 @@
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A261" s="16"/>
+      <c r="A261" s="20">
+        <v>260</v>
+      </c>
       <c r="B261" t="s">
         <v>591</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="D261" s="26" t="s">
+      <c r="D261" s="25" t="s">
         <v>1311</v>
       </c>
       <c r="E261" s="23"/>
@@ -15256,14 +15446,16 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A262" s="20"/>
+      <c r="A262" s="16">
+        <v>261</v>
+      </c>
       <c r="B262" t="s">
         <v>592</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="D262" s="26" t="s">
+      <c r="D262" s="25" t="s">
         <v>1312</v>
       </c>
       <c r="E262" s="23"/>
@@ -15281,14 +15473,16 @@
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A263" s="16"/>
+      <c r="A263" s="20">
+        <v>262</v>
+      </c>
       <c r="B263" t="s">
         <v>593</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="D263" s="26" t="s">
+      <c r="D263" s="25" t="s">
         <v>1313</v>
       </c>
       <c r="E263" s="23"/>
@@ -15306,14 +15500,16 @@
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A264" s="20"/>
+      <c r="A264" s="16">
+        <v>263</v>
+      </c>
       <c r="B264" t="s">
         <v>594</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="D264" s="26" t="s">
+      <c r="D264" s="25" t="s">
         <v>1314</v>
       </c>
       <c r="E264" s="23"/>
@@ -15331,14 +15527,16 @@
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A265" s="16"/>
+      <c r="A265" s="20">
+        <v>264</v>
+      </c>
       <c r="B265" t="s">
         <v>595</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="D265" s="26" t="s">
+      <c r="D265" s="25" t="s">
         <v>1315</v>
       </c>
       <c r="E265" s="23"/>
@@ -15356,14 +15554,16 @@
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A266" s="20"/>
+      <c r="A266" s="16">
+        <v>265</v>
+      </c>
       <c r="B266" t="s">
         <v>596</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="D266" s="26" t="s">
+      <c r="D266" s="25" t="s">
         <v>1316</v>
       </c>
       <c r="E266" s="23"/>
@@ -15381,14 +15581,16 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A267" s="16"/>
+      <c r="A267" s="20">
+        <v>266</v>
+      </c>
       <c r="B267" t="s">
         <v>597</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="D267" s="26" t="s">
+      <c r="D267" s="25" t="s">
         <v>1317</v>
       </c>
       <c r="E267" s="23"/>
@@ -15406,14 +15608,16 @@
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A268" s="20"/>
+      <c r="A268" s="16">
+        <v>267</v>
+      </c>
       <c r="B268" t="s">
         <v>598</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="D268" s="26" t="s">
+      <c r="D268" s="25" t="s">
         <v>1318</v>
       </c>
       <c r="E268" s="23"/>
@@ -15431,14 +15635,16 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A269" s="16"/>
+      <c r="A269" s="20">
+        <v>268</v>
+      </c>
       <c r="B269" t="s">
         <v>599</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D269" s="26" t="s">
+      <c r="D269" s="25" t="s">
         <v>1319</v>
       </c>
       <c r="E269" s="23"/>
@@ -15456,14 +15662,16 @@
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A270" s="20"/>
+      <c r="A270" s="16">
+        <v>269</v>
+      </c>
       <c r="B270" t="s">
         <v>600</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D270" s="26" t="s">
+      <c r="D270" s="25" t="s">
         <v>1320</v>
       </c>
       <c r="E270" s="23"/>
@@ -15481,14 +15689,16 @@
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A271" s="16"/>
+      <c r="A271" s="20">
+        <v>270</v>
+      </c>
       <c r="B271" t="s">
         <v>601</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="D271" s="26" t="s">
+      <c r="D271" s="25" t="s">
         <v>1321</v>
       </c>
       <c r="E271" s="23"/>
@@ -15506,14 +15716,16 @@
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A272" s="20"/>
+      <c r="A272" s="16">
+        <v>271</v>
+      </c>
       <c r="B272" t="s">
         <v>602</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="D272" s="26" t="s">
+      <c r="D272" s="25" t="s">
         <v>1322</v>
       </c>
       <c r="E272" s="23"/>
@@ -15531,14 +15743,16 @@
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A273" s="16"/>
+      <c r="A273" s="20">
+        <v>272</v>
+      </c>
       <c r="B273" t="s">
         <v>603</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="D273" s="26" t="s">
+      <c r="D273" s="25" t="s">
         <v>1323</v>
       </c>
       <c r="E273" s="23"/>
@@ -15556,14 +15770,16 @@
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A274" s="20"/>
+      <c r="A274" s="16">
+        <v>273</v>
+      </c>
       <c r="B274" t="s">
         <v>604</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="D274" s="26" t="s">
+      <c r="D274" s="25" t="s">
         <v>1324</v>
       </c>
       <c r="E274" s="23"/>
@@ -15581,14 +15797,16 @@
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A275" s="16"/>
+      <c r="A275" s="20">
+        <v>274</v>
+      </c>
       <c r="B275" t="s">
         <v>605</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="D275" s="26" t="s">
+      <c r="D275" s="25" t="s">
         <v>1325</v>
       </c>
       <c r="E275" s="23"/>
@@ -15606,14 +15824,16 @@
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A276" s="20"/>
+      <c r="A276" s="16">
+        <v>275</v>
+      </c>
       <c r="B276" t="s">
         <v>606</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="D276" s="26" t="s">
+      <c r="D276" s="25" t="s">
         <v>1326</v>
       </c>
       <c r="E276" s="23"/>
@@ -15631,14 +15851,16 @@
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A277" s="16"/>
+      <c r="A277" s="20">
+        <v>276</v>
+      </c>
       <c r="B277" t="s">
         <v>607</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="D277" s="26" t="s">
+      <c r="D277" s="25" t="s">
         <v>1327</v>
       </c>
       <c r="E277" s="23"/>
@@ -15656,14 +15878,16 @@
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A278" s="20"/>
+      <c r="A278" s="16">
+        <v>277</v>
+      </c>
       <c r="B278" t="s">
         <v>608</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="D278" s="26" t="s">
+      <c r="D278" s="25" t="s">
         <v>1328</v>
       </c>
       <c r="E278" s="23"/>
@@ -15681,14 +15905,16 @@
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A279" s="16"/>
+      <c r="A279" s="20">
+        <v>278</v>
+      </c>
       <c r="B279" t="s">
         <v>609</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="D279" s="26" t="s">
+      <c r="D279" s="25" t="s">
         <v>1329</v>
       </c>
       <c r="E279" s="23"/>
@@ -15706,14 +15932,16 @@
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A280" s="20"/>
+      <c r="A280" s="16">
+        <v>279</v>
+      </c>
       <c r="B280" t="s">
         <v>610</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="D280" s="26" t="s">
+      <c r="D280" s="25" t="s">
         <v>1330</v>
       </c>
       <c r="E280" s="23"/>
@@ -15731,14 +15959,16 @@
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A281" s="16"/>
+      <c r="A281" s="20">
+        <v>280</v>
+      </c>
       <c r="B281" t="s">
         <v>611</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D281" s="26" t="s">
+      <c r="D281" s="25" t="s">
         <v>1331</v>
       </c>
       <c r="E281" s="23"/>
@@ -15756,14 +15986,16 @@
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A282" s="20"/>
+      <c r="A282" s="16">
+        <v>281</v>
+      </c>
       <c r="B282" t="s">
         <v>612</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="D282" s="26" t="s">
+      <c r="D282" s="25" t="s">
         <v>1332</v>
       </c>
       <c r="E282" s="23"/>
@@ -15781,14 +16013,16 @@
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A283" s="16"/>
+      <c r="A283" s="20">
+        <v>282</v>
+      </c>
       <c r="B283" t="s">
         <v>613</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="D283" s="26" t="s">
+      <c r="D283" s="25" t="s">
         <v>1333</v>
       </c>
       <c r="E283" s="23"/>
@@ -15806,14 +16040,16 @@
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A284" s="20"/>
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
       <c r="B284" t="s">
         <v>614</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="D284" s="26" t="s">
+      <c r="D284" s="25" t="s">
         <v>1334</v>
       </c>
       <c r="E284" s="23"/>
@@ -15831,14 +16067,16 @@
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A285" s="16"/>
+      <c r="A285" s="20">
+        <v>284</v>
+      </c>
       <c r="B285" t="s">
         <v>615</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="D285" s="26" t="s">
+      <c r="D285" s="25" t="s">
         <v>1335</v>
       </c>
       <c r="E285" s="23"/>
@@ -15856,14 +16094,16 @@
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A286" s="20"/>
+      <c r="A286" s="16">
+        <v>285</v>
+      </c>
       <c r="B286" t="s">
         <v>616</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="D286" s="26" t="s">
+      <c r="D286" s="25" t="s">
         <v>1336</v>
       </c>
       <c r="E286" s="23"/>
@@ -15881,14 +16121,16 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A287" s="16"/>
+      <c r="A287" s="20">
+        <v>286</v>
+      </c>
       <c r="B287" t="s">
         <v>617</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="D287" s="26" t="s">
+      <c r="D287" s="25" t="s">
         <v>1337</v>
       </c>
       <c r="E287" s="23"/>
@@ -15906,14 +16148,16 @@
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A288" s="20"/>
+      <c r="A288" s="16">
+        <v>287</v>
+      </c>
       <c r="B288" t="s">
         <v>618</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="D288" s="26" t="s">
+      <c r="D288" s="25" t="s">
         <v>1338</v>
       </c>
       <c r="E288" s="23"/>
@@ -15931,14 +16175,16 @@
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A289" s="16"/>
+      <c r="A289" s="20">
+        <v>288</v>
+      </c>
       <c r="B289" t="s">
         <v>619</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="D289" s="26" t="s">
+      <c r="D289" s="25" t="s">
         <v>1339</v>
       </c>
       <c r="E289" s="23"/>
@@ -15956,14 +16202,16 @@
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A290" s="20"/>
+      <c r="A290" s="16">
+        <v>289</v>
+      </c>
       <c r="B290" t="s">
         <v>620</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="D290" s="26" t="s">
+      <c r="D290" s="25" t="s">
         <v>1340</v>
       </c>
       <c r="E290" s="23"/>
@@ -15981,14 +16229,16 @@
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A291" s="16"/>
+      <c r="A291" s="20">
+        <v>290</v>
+      </c>
       <c r="B291" t="s">
         <v>621</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="D291" s="26" t="s">
+      <c r="D291" s="25" t="s">
         <v>1341</v>
       </c>
       <c r="E291" s="23"/>
@@ -16006,14 +16256,16 @@
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A292" s="20"/>
+      <c r="A292" s="16">
+        <v>291</v>
+      </c>
       <c r="B292" t="s">
         <v>622</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="D292" s="26" t="s">
+      <c r="D292" s="25" t="s">
         <v>1342</v>
       </c>
       <c r="E292" s="23"/>
@@ -16031,14 +16283,16 @@
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A293" s="16"/>
+      <c r="A293" s="20">
+        <v>292</v>
+      </c>
       <c r="B293" t="s">
         <v>623</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="D293" s="26" t="s">
+      <c r="D293" s="25" t="s">
         <v>1343</v>
       </c>
       <c r="E293" s="23"/>
@@ -16056,14 +16310,16 @@
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A294" s="20"/>
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
       <c r="B294" t="s">
         <v>624</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="D294" s="26" t="s">
+      <c r="D294" s="25" t="s">
         <v>1344</v>
       </c>
       <c r="E294" s="23"/>
@@ -16081,14 +16337,16 @@
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A295" s="16"/>
+      <c r="A295" s="20">
+        <v>294</v>
+      </c>
       <c r="B295" t="s">
         <v>625</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="D295" s="26" t="s">
+      <c r="D295" s="25" t="s">
         <v>1345</v>
       </c>
       <c r="E295" s="23"/>
@@ -16106,14 +16364,16 @@
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A296" s="20"/>
+      <c r="A296" s="16">
+        <v>295</v>
+      </c>
       <c r="B296" t="s">
         <v>626</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D296" s="26" t="s">
+      <c r="D296" s="25" t="s">
         <v>1346</v>
       </c>
       <c r="E296" s="23"/>
@@ -16131,14 +16391,16 @@
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A297" s="16"/>
+      <c r="A297" s="20">
+        <v>296</v>
+      </c>
       <c r="B297" t="s">
         <v>627</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="D297" s="26" t="s">
+      <c r="D297" s="25" t="s">
         <v>1347</v>
       </c>
       <c r="E297" s="23"/>
@@ -16156,14 +16418,16 @@
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A298" s="20"/>
+      <c r="A298" s="16">
+        <v>297</v>
+      </c>
       <c r="B298" t="s">
         <v>628</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="D298" s="26" t="s">
+      <c r="D298" s="25" t="s">
         <v>1348</v>
       </c>
       <c r="E298" s="23"/>
@@ -16181,14 +16445,16 @@
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A299" s="16"/>
+      <c r="A299" s="20">
+        <v>298</v>
+      </c>
       <c r="B299" t="s">
         <v>629</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="D299" s="26" t="s">
+      <c r="D299" s="25" t="s">
         <v>1349</v>
       </c>
       <c r="E299" s="23"/>
@@ -16206,14 +16472,16 @@
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A300" s="20"/>
+      <c r="A300" s="16">
+        <v>299</v>
+      </c>
       <c r="B300" t="s">
         <v>630</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="D300" s="26" t="s">
+      <c r="D300" s="25" t="s">
         <v>1350</v>
       </c>
       <c r="E300" s="23"/>
@@ -16231,14 +16499,16 @@
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A301" s="16"/>
+      <c r="A301" s="20">
+        <v>300</v>
+      </c>
       <c r="B301" t="s">
         <v>631</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="D301" s="26" t="s">
+      <c r="D301" s="25" t="s">
         <v>1351</v>
       </c>
       <c r="E301" s="23"/>
@@ -16256,14 +16526,16 @@
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A302" s="20"/>
+      <c r="A302" s="16">
+        <v>301</v>
+      </c>
       <c r="B302" t="s">
         <v>632</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="D302" s="26" t="s">
+      <c r="D302" s="25" t="s">
         <v>1352</v>
       </c>
       <c r="E302" s="23"/>
@@ -16281,14 +16553,16 @@
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A303" s="16"/>
+      <c r="A303" s="20">
+        <v>302</v>
+      </c>
       <c r="B303" t="s">
         <v>633</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="D303" s="26" t="s">
+      <c r="D303" s="25" t="s">
         <v>1353</v>
       </c>
       <c r="E303" s="23"/>
@@ -16306,14 +16580,16 @@
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A304" s="20"/>
+      <c r="A304" s="16">
+        <v>303</v>
+      </c>
       <c r="B304" t="s">
         <v>634</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="D304" s="26" t="s">
+      <c r="D304" s="25" t="s">
         <v>1354</v>
       </c>
       <c r="E304" s="23"/>
@@ -16331,14 +16607,16 @@
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A305" s="16"/>
+      <c r="A305" s="20">
+        <v>304</v>
+      </c>
       <c r="B305" t="s">
         <v>635</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="D305" s="26" t="s">
+      <c r="D305" s="25" t="s">
         <v>1355</v>
       </c>
       <c r="E305" s="23"/>
@@ -16356,14 +16634,16 @@
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A306" s="20"/>
+      <c r="A306" s="16">
+        <v>305</v>
+      </c>
       <c r="B306" t="s">
         <v>636</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="D306" s="26" t="s">
+      <c r="D306" s="25" t="s">
         <v>1356</v>
       </c>
       <c r="E306" s="23"/>
@@ -16381,14 +16661,16 @@
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A307" s="16"/>
+      <c r="A307" s="20">
+        <v>306</v>
+      </c>
       <c r="B307" t="s">
         <v>637</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="D307" s="26" t="s">
+      <c r="D307" s="25" t="s">
         <v>1357</v>
       </c>
       <c r="E307" s="23"/>
@@ -16406,14 +16688,16 @@
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A308" s="20"/>
+      <c r="A308" s="16">
+        <v>307</v>
+      </c>
       <c r="B308" t="s">
         <v>638</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="D308" s="26" t="s">
+      <c r="D308" s="25" t="s">
         <v>1358</v>
       </c>
       <c r="E308" s="23"/>
@@ -16431,14 +16715,16 @@
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A309" s="16"/>
+      <c r="A309" s="20">
+        <v>308</v>
+      </c>
       <c r="B309" t="s">
         <v>639</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="D309" s="26" t="s">
+      <c r="D309" s="25" t="s">
         <v>1359</v>
       </c>
       <c r="E309" s="23"/>
@@ -16456,14 +16742,16 @@
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A310" s="20"/>
+      <c r="A310" s="16">
+        <v>309</v>
+      </c>
       <c r="B310" t="s">
         <v>640</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="D310" s="26" t="s">
+      <c r="D310" s="25" t="s">
         <v>1360</v>
       </c>
       <c r="E310" s="23"/>
@@ -16481,14 +16769,16 @@
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A311" s="16"/>
+      <c r="A311" s="20">
+        <v>310</v>
+      </c>
       <c r="B311" t="s">
         <v>641</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="D311" s="26" t="s">
+      <c r="D311" s="25" t="s">
         <v>1361</v>
       </c>
       <c r="E311" s="23"/>
@@ -16506,14 +16796,16 @@
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A312" s="20"/>
+      <c r="A312" s="16">
+        <v>311</v>
+      </c>
       <c r="B312" t="s">
         <v>642</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="D312" s="26" t="s">
+      <c r="D312" s="25" t="s">
         <v>1362</v>
       </c>
       <c r="E312" s="23"/>
@@ -16531,14 +16823,16 @@
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A313" s="16"/>
+      <c r="A313" s="20">
+        <v>312</v>
+      </c>
       <c r="B313" t="s">
         <v>643</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="D313" s="26" t="s">
+      <c r="D313" s="25" t="s">
         <v>1363</v>
       </c>
       <c r="E313" s="23"/>
@@ -16556,14 +16850,16 @@
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A314" s="20"/>
+      <c r="A314" s="16">
+        <v>313</v>
+      </c>
       <c r="B314" t="s">
         <v>644</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="D314" s="26" t="s">
+      <c r="D314" s="25" t="s">
         <v>1364</v>
       </c>
       <c r="E314" s="23"/>
@@ -16581,14 +16877,16 @@
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A315" s="16"/>
+      <c r="A315" s="20">
+        <v>314</v>
+      </c>
       <c r="B315" t="s">
         <v>645</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="D315" s="26" t="s">
+      <c r="D315" s="25" t="s">
         <v>1365</v>
       </c>
       <c r="E315" s="23"/>
@@ -16606,14 +16904,16 @@
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A316" s="20"/>
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
       <c r="B316" t="s">
         <v>646</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="D316" s="26" t="s">
+      <c r="D316" s="25" t="s">
         <v>1366</v>
       </c>
       <c r="E316" s="23"/>
@@ -16631,14 +16931,16 @@
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A317" s="16"/>
+      <c r="A317" s="20">
+        <v>316</v>
+      </c>
       <c r="B317" t="s">
         <v>647</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="D317" s="26" t="s">
+      <c r="D317" s="25" t="s">
         <v>1367</v>
       </c>
       <c r="E317" s="23"/>
@@ -16656,14 +16958,16 @@
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A318" s="20"/>
+      <c r="A318" s="16">
+        <v>317</v>
+      </c>
       <c r="B318" t="s">
         <v>648</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="D318" s="26" t="s">
+      <c r="D318" s="25" t="s">
         <v>1368</v>
       </c>
       <c r="E318" s="23"/>
@@ -16681,14 +16985,16 @@
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A319" s="16"/>
+      <c r="A319" s="20">
+        <v>318</v>
+      </c>
       <c r="B319" t="s">
         <v>649</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="D319" s="26" t="s">
+      <c r="D319" s="25" t="s">
         <v>1369</v>
       </c>
       <c r="E319" s="23"/>
@@ -16706,14 +17012,16 @@
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A320" s="20"/>
+      <c r="A320" s="16">
+        <v>319</v>
+      </c>
       <c r="B320" t="s">
         <v>650</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="D320" s="26" t="s">
+      <c r="D320" s="25" t="s">
         <v>1370</v>
       </c>
       <c r="E320" s="23"/>
@@ -16731,14 +17039,16 @@
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A321" s="16"/>
+      <c r="A321" s="20">
+        <v>320</v>
+      </c>
       <c r="B321" t="s">
         <v>651</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="D321" s="26" t="s">
+      <c r="D321" s="25" t="s">
         <v>1371</v>
       </c>
       <c r="E321" s="23"/>
@@ -16756,14 +17066,16 @@
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A322" s="20"/>
+      <c r="A322" s="16">
+        <v>321</v>
+      </c>
       <c r="B322" t="s">
         <v>652</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="D322" s="26" t="s">
+      <c r="D322" s="25" t="s">
         <v>1372</v>
       </c>
       <c r="E322" s="23"/>
@@ -16781,14 +17093,16 @@
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A323" s="16"/>
+      <c r="A323" s="20">
+        <v>322</v>
+      </c>
       <c r="B323" t="s">
         <v>653</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="D323" s="26" t="s">
+      <c r="D323" s="25" t="s">
         <v>1373</v>
       </c>
       <c r="E323" s="23"/>
@@ -16806,14 +17120,16 @@
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A324" s="20"/>
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
       <c r="B324" t="s">
         <v>654</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="D324" s="26" t="s">
+      <c r="D324" s="25" t="s">
         <v>1374</v>
       </c>
       <c r="E324" s="23"/>
@@ -16831,14 +17147,16 @@
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A325" s="16"/>
+      <c r="A325" s="20">
+        <v>324</v>
+      </c>
       <c r="B325" t="s">
         <v>655</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="D325" s="26" t="s">
+      <c r="D325" s="25" t="s">
         <v>1375</v>
       </c>
       <c r="E325" s="23"/>
@@ -16856,14 +17174,16 @@
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A326" s="20"/>
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
       <c r="B326" t="s">
         <v>656</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="D326" s="26" t="s">
+      <c r="D326" s="25" t="s">
         <v>1376</v>
       </c>
       <c r="E326" s="23"/>
@@ -16881,14 +17201,16 @@
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A327" s="16"/>
+      <c r="A327" s="20">
+        <v>326</v>
+      </c>
       <c r="B327" t="s">
         <v>657</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="D327" s="26" t="s">
+      <c r="D327" s="25" t="s">
         <v>1377</v>
       </c>
       <c r="E327" s="23"/>
@@ -16906,14 +17228,16 @@
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A328" s="20"/>
+      <c r="A328" s="16">
+        <v>327</v>
+      </c>
       <c r="B328" t="s">
         <v>658</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="D328" s="26" t="s">
+      <c r="D328" s="25" t="s">
         <v>1378</v>
       </c>
       <c r="E328" s="23"/>
@@ -16931,14 +17255,16 @@
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A329" s="16"/>
+      <c r="A329" s="20">
+        <v>328</v>
+      </c>
       <c r="B329" t="s">
         <v>659</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="D329" s="26" t="s">
+      <c r="D329" s="25" t="s">
         <v>1379</v>
       </c>
       <c r="E329" s="23"/>
@@ -16956,14 +17282,16 @@
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A330" s="20"/>
+      <c r="A330" s="16">
+        <v>329</v>
+      </c>
       <c r="B330" t="s">
         <v>660</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="D330" s="26" t="s">
+      <c r="D330" s="25" t="s">
         <v>1380</v>
       </c>
       <c r="E330" s="23"/>
@@ -16981,14 +17309,16 @@
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A331" s="16"/>
+      <c r="A331" s="20">
+        <v>330</v>
+      </c>
       <c r="B331" t="s">
         <v>661</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="D331" s="26" t="s">
+      <c r="D331" s="25" t="s">
         <v>1381</v>
       </c>
       <c r="E331" s="23"/>
@@ -17006,14 +17336,16 @@
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A332" s="20"/>
+      <c r="A332" s="16">
+        <v>331</v>
+      </c>
       <c r="B332" t="s">
         <v>662</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="D332" s="26" t="s">
+      <c r="D332" s="25" t="s">
         <v>1382</v>
       </c>
       <c r="E332" s="23"/>
@@ -17031,14 +17363,16 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A333" s="16"/>
+      <c r="A333" s="20">
+        <v>332</v>
+      </c>
       <c r="B333" t="s">
         <v>663</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="D333" s="26" t="s">
+      <c r="D333" s="25" t="s">
         <v>1383</v>
       </c>
       <c r="E333" s="23"/>
@@ -17056,14 +17390,16 @@
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A334" s="20"/>
+      <c r="A334" s="16">
+        <v>333</v>
+      </c>
       <c r="B334" t="s">
         <v>664</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="D334" s="26" t="s">
+      <c r="D334" s="25" t="s">
         <v>1384</v>
       </c>
       <c r="E334" s="23"/>
@@ -17081,14 +17417,16 @@
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A335" s="16"/>
+      <c r="A335" s="20">
+        <v>334</v>
+      </c>
       <c r="B335" t="s">
         <v>665</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="D335" s="26" t="s">
+      <c r="D335" s="25" t="s">
         <v>1385</v>
       </c>
       <c r="E335" s="23"/>
@@ -17106,14 +17444,16 @@
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A336" s="20"/>
+      <c r="A336" s="16">
+        <v>335</v>
+      </c>
       <c r="B336" t="s">
         <v>666</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="D336" s="26" t="s">
+      <c r="D336" s="25" t="s">
         <v>1386</v>
       </c>
       <c r="E336" s="23"/>
@@ -17131,14 +17471,16 @@
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A337" s="16"/>
+      <c r="A337" s="20">
+        <v>336</v>
+      </c>
       <c r="B337" t="s">
         <v>667</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="D337" s="26" t="s">
+      <c r="D337" s="25" t="s">
         <v>1387</v>
       </c>
       <c r="E337" s="23"/>
@@ -17156,14 +17498,16 @@
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A338" s="20"/>
+      <c r="A338" s="16">
+        <v>337</v>
+      </c>
       <c r="B338" t="s">
         <v>668</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="D338" s="26" t="s">
+      <c r="D338" s="25" t="s">
         <v>1388</v>
       </c>
       <c r="E338" s="23"/>
@@ -17181,14 +17525,16 @@
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A339" s="16"/>
+      <c r="A339" s="20">
+        <v>338</v>
+      </c>
       <c r="B339" t="s">
         <v>669</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="D339" s="26" t="s">
+      <c r="D339" s="25" t="s">
         <v>1389</v>
       </c>
       <c r="E339" s="23"/>
@@ -17206,14 +17552,16 @@
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A340" s="20"/>
+      <c r="A340" s="16">
+        <v>339</v>
+      </c>
       <c r="B340" t="s">
         <v>670</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="D340" s="26" t="s">
+      <c r="D340" s="25" t="s">
         <v>1390</v>
       </c>
       <c r="E340" s="23"/>
@@ -17231,14 +17579,16 @@
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A341" s="16"/>
+      <c r="A341" s="20">
+        <v>340</v>
+      </c>
       <c r="B341" t="s">
         <v>671</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="D341" s="26" t="s">
+      <c r="D341" s="25" t="s">
         <v>1391</v>
       </c>
       <c r="E341" s="23"/>
@@ -17256,14 +17606,16 @@
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A342" s="20"/>
+      <c r="A342" s="16">
+        <v>341</v>
+      </c>
       <c r="B342" t="s">
         <v>672</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="D342" s="26" t="s">
+      <c r="D342" s="25" t="s">
         <v>1392</v>
       </c>
       <c r="E342" s="23"/>
@@ -17281,14 +17633,16 @@
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A343" s="16"/>
+      <c r="A343" s="20">
+        <v>342</v>
+      </c>
       <c r="B343" t="s">
         <v>673</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="D343" s="26" t="s">
+      <c r="D343" s="25" t="s">
         <v>1393</v>
       </c>
       <c r="E343" s="23"/>
@@ -17306,14 +17660,16 @@
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A344" s="20"/>
+      <c r="A344" s="16">
+        <v>343</v>
+      </c>
       <c r="B344" t="s">
         <v>674</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="D344" s="26" t="s">
+      <c r="D344" s="25" t="s">
         <v>1394</v>
       </c>
       <c r="E344" s="23"/>
@@ -17331,14 +17687,16 @@
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A345" s="16"/>
+      <c r="A345" s="20">
+        <v>344</v>
+      </c>
       <c r="B345" t="s">
         <v>675</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="D345" s="26" t="s">
+      <c r="D345" s="25" t="s">
         <v>1395</v>
       </c>
       <c r="E345" s="23"/>
@@ -17356,14 +17714,16 @@
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A346" s="20"/>
+      <c r="A346" s="16">
+        <v>345</v>
+      </c>
       <c r="B346" t="s">
         <v>676</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="D346" s="26" t="s">
+      <c r="D346" s="25" t="s">
         <v>1396</v>
       </c>
       <c r="E346" s="23"/>
@@ -17381,14 +17741,16 @@
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A347" s="16"/>
+      <c r="A347" s="20">
+        <v>346</v>
+      </c>
       <c r="B347" t="s">
         <v>677</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="D347" s="26" t="s">
+      <c r="D347" s="25" t="s">
         <v>1397</v>
       </c>
       <c r="E347" s="23"/>
@@ -17406,14 +17768,16 @@
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A348" s="20"/>
+      <c r="A348" s="16">
+        <v>347</v>
+      </c>
       <c r="B348" t="s">
         <v>678</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="D348" s="26" t="s">
+      <c r="D348" s="25" t="s">
         <v>1398</v>
       </c>
       <c r="E348" s="23"/>
@@ -17431,14 +17795,16 @@
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A349" s="16"/>
+      <c r="A349" s="20">
+        <v>348</v>
+      </c>
       <c r="B349" t="s">
         <v>679</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="D349" s="26" t="s">
+      <c r="D349" s="25" t="s">
         <v>1399</v>
       </c>
       <c r="E349" s="23"/>
@@ -17456,14 +17822,16 @@
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A350" s="20"/>
+      <c r="A350" s="16">
+        <v>349</v>
+      </c>
       <c r="B350" t="s">
         <v>680</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="D350" s="26" t="s">
+      <c r="D350" s="25" t="s">
         <v>1400</v>
       </c>
       <c r="E350" s="23"/>
@@ -17481,14 +17849,16 @@
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A351" s="16"/>
+      <c r="A351" s="20">
+        <v>350</v>
+      </c>
       <c r="B351" t="s">
         <v>681</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="D351" s="26" t="s">
+      <c r="D351" s="25" t="s">
         <v>1401</v>
       </c>
       <c r="E351" s="23"/>
@@ -17506,14 +17876,16 @@
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A352" s="20"/>
+      <c r="A352" s="16">
+        <v>351</v>
+      </c>
       <c r="B352" t="s">
         <v>682</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="D352" s="26" t="s">
+      <c r="D352" s="25" t="s">
         <v>1402</v>
       </c>
       <c r="E352" s="23"/>
@@ -17531,14 +17903,16 @@
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A353" s="16"/>
+      <c r="A353" s="20">
+        <v>352</v>
+      </c>
       <c r="B353" t="s">
         <v>683</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="D353" s="26" t="s">
+      <c r="D353" s="25" t="s">
         <v>1403</v>
       </c>
       <c r="E353" s="23"/>
@@ -17556,14 +17930,16 @@
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A354" s="20"/>
+      <c r="A354" s="16">
+        <v>353</v>
+      </c>
       <c r="B354" t="s">
         <v>684</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="D354" s="26" t="s">
+      <c r="D354" s="25" t="s">
         <v>1404</v>
       </c>
       <c r="E354" s="23"/>
@@ -17581,14 +17957,16 @@
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A355" s="16"/>
+      <c r="A355" s="20">
+        <v>354</v>
+      </c>
       <c r="B355" t="s">
         <v>685</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="D355" s="26" t="s">
+      <c r="D355" s="25" t="s">
         <v>1405</v>
       </c>
       <c r="E355" s="23"/>
@@ -17606,14 +17984,16 @@
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A356" s="20"/>
+      <c r="A356" s="16">
+        <v>355</v>
+      </c>
       <c r="B356" t="s">
         <v>686</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="D356" s="26" t="s">
+      <c r="D356" s="25" t="s">
         <v>1406</v>
       </c>
       <c r="E356" s="23"/>
@@ -17631,14 +18011,16 @@
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A357" s="16"/>
+      <c r="A357" s="20">
+        <v>356</v>
+      </c>
       <c r="B357" t="s">
         <v>687</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="D357" s="26" t="s">
+      <c r="D357" s="25" t="s">
         <v>1407</v>
       </c>
       <c r="E357" s="23"/>
@@ -17656,14 +18038,16 @@
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A358" s="20"/>
+      <c r="A358" s="16">
+        <v>357</v>
+      </c>
       <c r="B358" t="s">
         <v>688</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="D358" s="26" t="s">
+      <c r="D358" s="25" t="s">
         <v>1408</v>
       </c>
       <c r="E358" s="23"/>
@@ -17681,14 +18065,16 @@
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A359" s="16"/>
+      <c r="A359" s="20">
+        <v>358</v>
+      </c>
       <c r="B359" t="s">
         <v>689</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="D359" s="26" t="s">
+      <c r="D359" s="25" t="s">
         <v>1409</v>
       </c>
       <c r="E359" s="23"/>
@@ -17706,14 +18092,16 @@
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A360" s="20"/>
+      <c r="A360" s="16">
+        <v>359</v>
+      </c>
       <c r="B360" t="s">
         <v>690</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="D360" s="26" t="s">
+      <c r="D360" s="25" t="s">
         <v>1410</v>
       </c>
       <c r="E360" s="23"/>
@@ -17731,14 +18119,16 @@
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A361" s="16"/>
+      <c r="A361" s="20">
+        <v>360</v>
+      </c>
       <c r="B361" t="s">
         <v>691</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>1053</v>
       </c>
-      <c r="D361" s="26" t="s">
+      <c r="D361" s="25" t="s">
         <v>1411</v>
       </c>
       <c r="E361" s="23"/>
@@ -17756,14 +18146,16 @@
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A362" s="20"/>
+      <c r="A362" s="16">
+        <v>361</v>
+      </c>
       <c r="B362" t="s">
         <v>692</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="D362" s="26" t="s">
+      <c r="D362" s="25" t="s">
         <v>1412</v>
       </c>
       <c r="E362" s="23"/>
@@ -17781,14 +18173,16 @@
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A363" s="16"/>
+      <c r="A363" s="20">
+        <v>362</v>
+      </c>
       <c r="B363" t="s">
         <v>693</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="D363" s="26" t="s">
+      <c r="D363" s="25" t="s">
         <v>1413</v>
       </c>
       <c r="E363" s="23"/>
@@ -17806,14 +18200,16 @@
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A364" s="20"/>
+      <c r="A364" s="16">
+        <v>363</v>
+      </c>
       <c r="B364" t="s">
         <v>694</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="D364" s="26" t="s">
+      <c r="D364" s="25" t="s">
         <v>1414</v>
       </c>
       <c r="E364" s="23"/>
@@ -17831,14 +18227,16 @@
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A365" s="16"/>
+      <c r="A365" s="20">
+        <v>364</v>
+      </c>
       <c r="B365" t="s">
         <v>695</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="D365" s="26" t="s">
+      <c r="D365" s="25" t="s">
         <v>1415</v>
       </c>
       <c r="E365" s="23"/>
@@ -17856,14 +18254,16 @@
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A366" s="20"/>
+      <c r="A366" s="16">
+        <v>365</v>
+      </c>
       <c r="B366" t="s">
         <v>696</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="D366" s="26" t="s">
+      <c r="D366" s="25" t="s">
         <v>1416</v>
       </c>
       <c r="E366" s="23"/>
@@ -17881,14 +18281,16 @@
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A367" s="16"/>
+      <c r="A367" s="20">
+        <v>366</v>
+      </c>
       <c r="B367" t="s">
         <v>697</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="D367" s="26" t="s">
+      <c r="D367" s="25" t="s">
         <v>1417</v>
       </c>
       <c r="E367" s="23"/>
@@ -17906,14 +18308,16 @@
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A368" s="20"/>
+      <c r="A368" s="16">
+        <v>367</v>
+      </c>
       <c r="B368" t="s">
         <v>698</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="D368" s="26" t="s">
+      <c r="D368" s="25" t="s">
         <v>1418</v>
       </c>
       <c r="E368" s="23"/>
@@ -17931,14 +18335,16 @@
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A369" s="16"/>
+      <c r="A369" s="20">
+        <v>368</v>
+      </c>
       <c r="B369" t="s">
         <v>699</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="D369" s="26" t="s">
+      <c r="D369" s="25" t="s">
         <v>1419</v>
       </c>
       <c r="E369" s="23"/>
@@ -17956,14 +18362,16 @@
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A370" s="20"/>
+      <c r="A370" s="16">
+        <v>369</v>
+      </c>
       <c r="B370" t="s">
         <v>700</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="D370" s="26" t="s">
+      <c r="D370" s="25" t="s">
         <v>1420</v>
       </c>
       <c r="E370" s="23"/>
@@ -17981,14 +18389,16 @@
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A371" s="16"/>
+      <c r="A371" s="20">
+        <v>370</v>
+      </c>
       <c r="B371" t="s">
         <v>701</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="D371" s="26" t="s">
+      <c r="D371" s="25" t="s">
         <v>1421</v>
       </c>
       <c r="E371" s="23"/>
@@ -18006,14 +18416,16 @@
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A372" s="20"/>
+      <c r="A372" s="16">
+        <v>371</v>
+      </c>
       <c r="B372" t="s">
         <v>702</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="D372" s="26" t="s">
+      <c r="D372" s="25" t="s">
         <v>1422</v>
       </c>
       <c r="E372" s="23"/>
@@ -18031,14 +18443,16 @@
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A373" s="16"/>
+      <c r="A373" s="20">
+        <v>372</v>
+      </c>
       <c r="B373" t="s">
         <v>703</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="D373" s="26" t="s">
+      <c r="D373" s="25" t="s">
         <v>1423</v>
       </c>
       <c r="E373" s="23"/>
@@ -18056,14 +18470,16 @@
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A374" s="20"/>
+      <c r="A374" s="16">
+        <v>373</v>
+      </c>
       <c r="B374" t="s">
         <v>704</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="D374" s="26" t="s">
+      <c r="D374" s="25" t="s">
         <v>1424</v>
       </c>
       <c r="E374" s="23"/>
@@ -18081,14 +18497,16 @@
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A375" s="16"/>
+      <c r="A375" s="20">
+        <v>374</v>
+      </c>
       <c r="B375" t="s">
         <v>705</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="D375" s="26" t="s">
+      <c r="D375" s="25" t="s">
         <v>1425</v>
       </c>
       <c r="E375" s="23"/>
@@ -18106,14 +18524,16 @@
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A376" s="20"/>
+      <c r="A376" s="16">
+        <v>375</v>
+      </c>
       <c r="B376" t="s">
         <v>706</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="D376" s="26" t="s">
+      <c r="D376" s="25" t="s">
         <v>1426</v>
       </c>
       <c r="E376" s="23"/>
@@ -18131,14 +18551,16 @@
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A377" s="16"/>
+      <c r="A377" s="20">
+        <v>376</v>
+      </c>
       <c r="B377" t="s">
         <v>707</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="D377" s="26" t="s">
+      <c r="D377" s="25" t="s">
         <v>1427</v>
       </c>
       <c r="E377" s="23"/>
@@ -18156,14 +18578,16 @@
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A378" s="20"/>
+      <c r="A378" s="16">
+        <v>377</v>
+      </c>
       <c r="B378" t="s">
         <v>708</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="D378" s="26" t="s">
+      <c r="D378" s="25" t="s">
         <v>1428</v>
       </c>
       <c r="E378" s="23"/>
@@ -18181,14 +18605,16 @@
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A379" s="16"/>
+      <c r="A379" s="20">
+        <v>378</v>
+      </c>
       <c r="B379" t="s">
         <v>709</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="D379" s="26" t="s">
+      <c r="D379" s="25" t="s">
         <v>1429</v>
       </c>
       <c r="E379" s="23"/>
@@ -18206,14 +18632,16 @@
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A380" s="20"/>
+      <c r="A380" s="16">
+        <v>379</v>
+      </c>
       <c r="B380" t="s">
         <v>710</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="D380" s="26" t="s">
+      <c r="D380" s="25" t="s">
         <v>1430</v>
       </c>
       <c r="E380" s="23"/>
@@ -18231,14 +18659,16 @@
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A381" s="16"/>
+      <c r="A381" s="20">
+        <v>380</v>
+      </c>
       <c r="B381" t="s">
         <v>711</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="D381" s="26" t="s">
+      <c r="D381" s="25" t="s">
         <v>1431</v>
       </c>
       <c r="E381" s="23"/>
@@ -18256,14 +18686,16 @@
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A382" s="20"/>
+      <c r="A382" s="16">
+        <v>381</v>
+      </c>
       <c r="B382" t="s">
         <v>712</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="D382" s="26" t="s">
+      <c r="D382" s="25" t="s">
         <v>1432</v>
       </c>
       <c r="E382" s="23"/>
@@ -18281,14 +18713,16 @@
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A383" s="16"/>
+      <c r="A383" s="20">
+        <v>382</v>
+      </c>
       <c r="B383" t="s">
         <v>713</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="D383" s="26" t="s">
+      <c r="D383" s="25" t="s">
         <v>1433</v>
       </c>
       <c r="E383" s="23"/>
@@ -18306,14 +18740,16 @@
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A384" s="20"/>
+      <c r="A384" s="16">
+        <v>383</v>
+      </c>
       <c r="B384" t="s">
         <v>714</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="D384" s="26" t="s">
+      <c r="D384" s="25" t="s">
         <v>1434</v>
       </c>
       <c r="E384" s="23"/>
@@ -18331,14 +18767,16 @@
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A385" s="16"/>
+      <c r="A385" s="20">
+        <v>384</v>
+      </c>
       <c r="B385" t="s">
         <v>715</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="D385" s="26" t="s">
+      <c r="D385" s="25" t="s">
         <v>1435</v>
       </c>
       <c r="E385" s="23"/>
@@ -18356,14 +18794,16 @@
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A386" s="20"/>
+      <c r="A386" s="16">
+        <v>385</v>
+      </c>
       <c r="B386" t="s">
         <v>716</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D386" s="26" t="s">
+      <c r="D386" s="25" t="s">
         <v>1436</v>
       </c>
       <c r="E386" s="23"/>
@@ -18381,14 +18821,16 @@
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A387" s="16"/>
+      <c r="A387" s="20">
+        <v>386</v>
+      </c>
       <c r="B387" t="s">
         <v>717</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="D387" s="26" t="s">
+      <c r="D387" s="25" t="s">
         <v>1437</v>
       </c>
       <c r="E387" s="23"/>
@@ -18406,14 +18848,16 @@
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A388" s="20"/>
+      <c r="A388" s="16">
+        <v>387</v>
+      </c>
       <c r="B388" t="s">
         <v>718</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="D388" s="26" t="s">
+      <c r="D388" s="25" t="s">
         <v>1438</v>
       </c>
       <c r="E388" s="23"/>
@@ -18431,14 +18875,16 @@
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A389" s="16"/>
+      <c r="A389" s="20">
+        <v>388</v>
+      </c>
       <c r="B389" t="s">
         <v>719</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="D389" s="26" t="s">
+      <c r="D389" s="25" t="s">
         <v>1439</v>
       </c>
       <c r="E389" s="23"/>
@@ -18456,14 +18902,16 @@
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A390" s="20"/>
+      <c r="A390" s="16">
+        <v>389</v>
+      </c>
       <c r="B390" t="s">
         <v>720</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="D390" s="26" t="s">
+      <c r="D390" s="25" t="s">
         <v>1440</v>
       </c>
       <c r="E390" s="23"/>
@@ -18481,14 +18929,16 @@
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A391" s="16"/>
+      <c r="A391" s="20">
+        <v>390</v>
+      </c>
       <c r="B391" t="s">
         <v>721</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="D391" s="26" t="s">
+      <c r="D391" s="25" t="s">
         <v>1441</v>
       </c>
       <c r="E391" s="23"/>
@@ -18506,14 +18956,16 @@
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A392" s="20"/>
+      <c r="A392" s="16">
+        <v>391</v>
+      </c>
       <c r="B392" t="s">
         <v>722</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="D392" s="26" t="s">
+      <c r="D392" s="25" t="s">
         <v>1442</v>
       </c>
       <c r="E392" s="23"/>
@@ -18531,14 +18983,16 @@
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A393" s="16"/>
+      <c r="A393" s="20">
+        <v>392</v>
+      </c>
       <c r="B393" t="s">
         <v>723</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="D393" s="26" t="s">
+      <c r="D393" s="25" t="s">
         <v>1443</v>
       </c>
       <c r="E393" s="23"/>
@@ -18556,14 +19010,16 @@
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A394" s="20"/>
+      <c r="A394" s="16">
+        <v>393</v>
+      </c>
       <c r="B394" t="s">
         <v>724</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="D394" s="26" t="s">
+      <c r="D394" s="25" t="s">
         <v>1444</v>
       </c>
       <c r="E394" s="23"/>
@@ -18581,14 +19037,16 @@
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A395" s="16"/>
+      <c r="A395" s="20">
+        <v>394</v>
+      </c>
       <c r="B395" t="s">
         <v>725</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="D395" s="26" t="s">
+      <c r="D395" s="25" t="s">
         <v>1445</v>
       </c>
       <c r="E395" s="23"/>
@@ -18606,14 +19064,16 @@
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A396" s="20"/>
+      <c r="A396" s="16">
+        <v>395</v>
+      </c>
       <c r="B396" t="s">
         <v>726</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="D396" s="26" t="s">
+      <c r="D396" s="25" t="s">
         <v>1446</v>
       </c>
       <c r="E396" s="23"/>
@@ -18631,14 +19091,16 @@
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A397" s="16"/>
+      <c r="A397" s="20">
+        <v>396</v>
+      </c>
       <c r="B397" t="s">
         <v>727</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="D397" s="26" t="s">
+      <c r="D397" s="25" t="s">
         <v>1447</v>
       </c>
       <c r="E397" s="23"/>
@@ -18656,14 +19118,16 @@
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A398" s="20"/>
+      <c r="A398" s="16">
+        <v>397</v>
+      </c>
       <c r="B398" t="s">
         <v>728</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="D398" s="26" t="s">
+      <c r="D398" s="25" t="s">
         <v>1448</v>
       </c>
       <c r="E398" s="23"/>
@@ -18681,14 +19145,16 @@
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A399" s="16"/>
+      <c r="A399" s="20">
+        <v>398</v>
+      </c>
       <c r="B399" t="s">
         <v>729</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="D399" s="26" t="s">
+      <c r="D399" s="25" t="s">
         <v>1449</v>
       </c>
       <c r="E399" s="23"/>
@@ -18706,14 +19172,16 @@
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A400" s="20"/>
+      <c r="A400" s="16">
+        <v>399</v>
+      </c>
       <c r="B400" t="s">
         <v>730</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="D400" s="26" t="s">
+      <c r="D400" s="25" t="s">
         <v>1450</v>
       </c>
       <c r="E400" s="23"/>
@@ -18731,14 +19199,16 @@
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A401" s="16"/>
+      <c r="A401" s="20">
+        <v>400</v>
+      </c>
       <c r="B401" t="s">
         <v>731</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="D401" s="26" t="s">
+      <c r="D401" s="25" t="s">
         <v>1451</v>
       </c>
       <c r="E401" s="23"/>
@@ -18756,14 +19226,16 @@
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A402" s="20"/>
+      <c r="A402" s="16">
+        <v>401</v>
+      </c>
       <c r="B402" t="s">
         <v>732</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="D402" s="26" t="s">
+      <c r="D402" s="25" t="s">
         <v>1452</v>
       </c>
       <c r="E402" s="23"/>
@@ -18781,14 +19253,16 @@
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A403" s="16"/>
+      <c r="A403" s="20">
+        <v>402</v>
+      </c>
       <c r="B403" t="s">
         <v>733</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="D403" s="26" t="s">
+      <c r="D403" s="25" t="s">
         <v>1453</v>
       </c>
       <c r="E403" s="23"/>
@@ -18806,14 +19280,16 @@
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A404" s="20"/>
+      <c r="A404" s="16">
+        <v>403</v>
+      </c>
       <c r="B404" t="s">
         <v>734</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="D404" s="26" t="s">
+      <c r="D404" s="25" t="s">
         <v>1454</v>
       </c>
       <c r="E404" s="23"/>
@@ -18831,14 +19307,16 @@
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A405" s="16"/>
+      <c r="A405" s="20">
+        <v>404</v>
+      </c>
       <c r="B405" t="s">
         <v>735</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="D405" s="26" t="s">
+      <c r="D405" s="25" t="s">
         <v>1455</v>
       </c>
       <c r="E405" s="23"/>
@@ -18856,14 +19334,16 @@
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A406" s="20"/>
+      <c r="A406" s="16">
+        <v>405</v>
+      </c>
       <c r="B406" t="s">
         <v>736</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="D406" s="26" t="s">
+      <c r="D406" s="25" t="s">
         <v>1456</v>
       </c>
       <c r="E406" s="23"/>
@@ -18881,14 +19361,16 @@
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A407" s="16"/>
+      <c r="A407" s="20">
+        <v>406</v>
+      </c>
       <c r="B407" t="s">
         <v>737</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="D407" s="26" t="s">
+      <c r="D407" s="25" t="s">
         <v>1457</v>
       </c>
       <c r="E407" s="23"/>
@@ -18906,14 +19388,16 @@
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A408" s="20"/>
+      <c r="A408" s="16">
+        <v>407</v>
+      </c>
       <c r="B408" t="s">
         <v>738</v>
       </c>
       <c r="C408" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="D408" s="26" t="s">
+      <c r="D408" s="25" t="s">
         <v>1458</v>
       </c>
       <c r="E408" s="23"/>
@@ -18931,14 +19415,16 @@
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A409" s="16"/>
+      <c r="A409" s="20">
+        <v>408</v>
+      </c>
       <c r="B409" t="s">
         <v>739</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="D409" s="26" t="s">
+      <c r="D409" s="25" t="s">
         <v>1459</v>
       </c>
       <c r="E409" s="23"/>
@@ -18956,14 +19442,16 @@
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A410" s="20"/>
+      <c r="A410" s="16">
+        <v>409</v>
+      </c>
       <c r="B410" t="s">
         <v>740</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="D410" s="26" t="s">
+      <c r="D410" s="25" t="s">
         <v>1460</v>
       </c>
       <c r="E410" s="23"/>
@@ -18981,14 +19469,16 @@
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A411" s="16"/>
+      <c r="A411" s="20">
+        <v>410</v>
+      </c>
       <c r="B411" t="s">
         <v>741</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="D411" s="26" t="s">
+      <c r="D411" s="25" t="s">
         <v>1461</v>
       </c>
       <c r="E411" s="23"/>
@@ -19006,14 +19496,16 @@
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A412" s="20"/>
+      <c r="A412" s="16">
+        <v>411</v>
+      </c>
       <c r="B412" t="s">
         <v>742</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="D412" s="26" t="s">
+      <c r="D412" s="25" t="s">
         <v>1462</v>
       </c>
       <c r="E412" s="23"/>
@@ -19031,14 +19523,16 @@
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A413" s="16"/>
+      <c r="A413" s="20">
+        <v>412</v>
+      </c>
       <c r="B413" t="s">
         <v>743</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="D413" s="26" t="s">
+      <c r="D413" s="25" t="s">
         <v>1463</v>
       </c>
       <c r="E413" s="23"/>
@@ -19056,14 +19550,16 @@
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A414" s="20"/>
+      <c r="A414" s="16">
+        <v>413</v>
+      </c>
       <c r="B414" t="s">
         <v>744</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="D414" s="26" t="s">
+      <c r="D414" s="25" t="s">
         <v>1464</v>
       </c>
       <c r="E414" s="23"/>
@@ -19081,14 +19577,16 @@
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A415" s="16"/>
+      <c r="A415" s="20">
+        <v>414</v>
+      </c>
       <c r="B415" t="s">
         <v>745</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="D415" s="26" t="s">
+      <c r="D415" s="25" t="s">
         <v>1465</v>
       </c>
       <c r="E415" s="23"/>
@@ -19106,14 +19604,16 @@
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A416" s="20"/>
+      <c r="A416" s="16">
+        <v>415</v>
+      </c>
       <c r="B416" t="s">
         <v>746</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="D416" s="26" t="s">
+      <c r="D416" s="25" t="s">
         <v>1466</v>
       </c>
       <c r="E416" s="23"/>
@@ -19131,14 +19631,16 @@
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A417" s="16"/>
+      <c r="A417" s="20">
+        <v>416</v>
+      </c>
       <c r="B417" t="s">
         <v>747</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="D417" s="26" t="s">
+      <c r="D417" s="25" t="s">
         <v>1467</v>
       </c>
       <c r="E417" s="23"/>
@@ -19156,14 +19658,16 @@
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A418" s="20"/>
+      <c r="A418" s="16">
+        <v>417</v>
+      </c>
       <c r="B418" t="s">
         <v>748</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="D418" s="26" t="s">
+      <c r="D418" s="25" t="s">
         <v>1468</v>
       </c>
       <c r="E418" s="23"/>
@@ -19181,14 +19685,16 @@
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A419" s="16"/>
+      <c r="A419" s="20">
+        <v>418</v>
+      </c>
       <c r="B419" t="s">
         <v>749</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="D419" s="26" t="s">
+      <c r="D419" s="25" t="s">
         <v>1469</v>
       </c>
       <c r="E419" s="23"/>
@@ -19206,14 +19712,16 @@
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A420" s="20"/>
+      <c r="A420" s="16">
+        <v>419</v>
+      </c>
       <c r="B420" t="s">
         <v>750</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="D420" s="26" t="s">
+      <c r="D420" s="25" t="s">
         <v>1470</v>
       </c>
       <c r="E420" s="23"/>
@@ -19231,14 +19739,16 @@
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A421" s="16"/>
+      <c r="A421" s="20">
+        <v>420</v>
+      </c>
       <c r="B421" t="s">
         <v>751</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="D421" s="26" t="s">
+      <c r="D421" s="25" t="s">
         <v>1471</v>
       </c>
       <c r="E421" s="23"/>
@@ -19256,14 +19766,16 @@
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A422" s="20"/>
+      <c r="A422" s="16">
+        <v>421</v>
+      </c>
       <c r="B422" t="s">
         <v>752</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="D422" s="26" t="s">
+      <c r="D422" s="25" t="s">
         <v>1472</v>
       </c>
       <c r="E422" s="23"/>
@@ -19281,14 +19793,16 @@
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A423" s="16"/>
+      <c r="A423" s="20">
+        <v>422</v>
+      </c>
       <c r="B423" t="s">
         <v>753</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="D423" s="26" t="s">
+      <c r="D423" s="25" t="s">
         <v>1473</v>
       </c>
       <c r="E423" s="23"/>
@@ -19306,14 +19820,16 @@
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A424" s="20"/>
+      <c r="A424" s="16">
+        <v>423</v>
+      </c>
       <c r="B424" t="s">
         <v>754</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="D424" s="26" t="s">
+      <c r="D424" s="25" t="s">
         <v>1474</v>
       </c>
       <c r="E424" s="23"/>
@@ -19331,14 +19847,16 @@
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A425" s="16"/>
+      <c r="A425" s="20">
+        <v>424</v>
+      </c>
       <c r="B425" t="s">
         <v>755</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="D425" s="26" t="s">
+      <c r="D425" s="25" t="s">
         <v>1475</v>
       </c>
       <c r="E425" s="23"/>
@@ -19356,14 +19874,16 @@
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A426" s="20"/>
+      <c r="A426" s="16">
+        <v>425</v>
+      </c>
       <c r="B426" t="s">
         <v>756</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="D426" s="26" t="s">
+      <c r="D426" s="25" t="s">
         <v>1476</v>
       </c>
       <c r="E426" s="23"/>
@@ -19381,14 +19901,16 @@
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A427" s="16"/>
+      <c r="A427" s="20">
+        <v>426</v>
+      </c>
       <c r="B427" t="s">
         <v>757</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="D427" s="26" t="s">
+      <c r="D427" s="25" t="s">
         <v>1477</v>
       </c>
       <c r="E427" s="23"/>
@@ -19406,14 +19928,16 @@
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A428" s="20"/>
+      <c r="A428" s="16">
+        <v>427</v>
+      </c>
       <c r="B428" t="s">
         <v>758</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="D428" s="26" t="s">
+      <c r="D428" s="25" t="s">
         <v>1478</v>
       </c>
       <c r="E428" s="23"/>
@@ -19431,14 +19955,16 @@
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A429" s="16"/>
+      <c r="A429" s="20">
+        <v>428</v>
+      </c>
       <c r="B429" t="s">
         <v>759</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="D429" s="26" t="s">
+      <c r="D429" s="25" t="s">
         <v>1479</v>
       </c>
       <c r="E429" s="23"/>
@@ -19456,14 +19982,16 @@
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A430" s="20"/>
+      <c r="A430" s="16">
+        <v>429</v>
+      </c>
       <c r="B430" t="s">
         <v>760</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="D430" s="26" t="s">
+      <c r="D430" s="25" t="s">
         <v>1480</v>
       </c>
       <c r="E430" s="23"/>
@@ -19481,14 +20009,16 @@
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A431" s="16"/>
+      <c r="A431" s="20">
+        <v>430</v>
+      </c>
       <c r="B431" t="s">
         <v>761</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="D431" s="26" t="s">
+      <c r="D431" s="25" t="s">
         <v>1481</v>
       </c>
       <c r="E431" s="23"/>
@@ -19506,14 +20036,16 @@
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A432" s="20"/>
+      <c r="A432" s="16">
+        <v>431</v>
+      </c>
       <c r="B432" t="s">
         <v>762</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="D432" s="26" t="s">
+      <c r="D432" s="25" t="s">
         <v>1482</v>
       </c>
       <c r="E432" s="23"/>
@@ -19531,14 +20063,16 @@
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A433" s="16"/>
+      <c r="A433" s="20">
+        <v>432</v>
+      </c>
       <c r="B433" t="s">
         <v>763</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="D433" s="26" t="s">
+      <c r="D433" s="25" t="s">
         <v>1483</v>
       </c>
       <c r="E433" s="23"/>
@@ -19556,14 +20090,16 @@
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A434" s="20"/>
+      <c r="A434" s="16">
+        <v>433</v>
+      </c>
       <c r="B434" t="s">
         <v>764</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="D434" s="26" t="s">
+      <c r="D434" s="25" t="s">
         <v>1484</v>
       </c>
       <c r="E434" s="23"/>
@@ -19581,14 +20117,16 @@
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A435" s="16"/>
+      <c r="A435" s="20">
+        <v>434</v>
+      </c>
       <c r="B435" t="s">
         <v>765</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="D435" s="26" t="s">
+      <c r="D435" s="25" t="s">
         <v>1485</v>
       </c>
       <c r="E435" s="23"/>
@@ -19606,14 +20144,16 @@
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A436" s="20"/>
+      <c r="A436" s="16">
+        <v>435</v>
+      </c>
       <c r="B436" t="s">
         <v>766</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="D436" s="26" t="s">
+      <c r="D436" s="25" t="s">
         <v>1486</v>
       </c>
       <c r="E436" s="23"/>
@@ -19631,14 +20171,16 @@
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A437" s="16"/>
+      <c r="A437" s="20">
+        <v>436</v>
+      </c>
       <c r="B437" t="s">
         <v>767</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="D437" s="26" t="s">
+      <c r="D437" s="25" t="s">
         <v>1487</v>
       </c>
       <c r="E437" s="23"/>
@@ -19656,14 +20198,16 @@
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A438" s="20"/>
+      <c r="A438" s="16">
+        <v>437</v>
+      </c>
       <c r="B438" t="s">
         <v>768</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="D438" s="26" t="s">
+      <c r="D438" s="25" t="s">
         <v>1488</v>
       </c>
       <c r="E438" s="23"/>
@@ -19681,14 +20225,16 @@
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A439" s="16"/>
+      <c r="A439" s="20">
+        <v>438</v>
+      </c>
       <c r="B439" t="s">
         <v>769</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="D439" s="26" t="s">
+      <c r="D439" s="25" t="s">
         <v>1489</v>
       </c>
       <c r="E439" s="23"/>
@@ -19706,14 +20252,16 @@
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A440" s="20"/>
+      <c r="A440" s="16">
+        <v>439</v>
+      </c>
       <c r="B440" t="s">
         <v>770</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="D440" s="26" t="s">
+      <c r="D440" s="25" t="s">
         <v>1490</v>
       </c>
       <c r="E440" s="23"/>
@@ -19731,14 +20279,16 @@
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A441" s="16"/>
+      <c r="A441" s="20">
+        <v>440</v>
+      </c>
       <c r="B441" t="s">
         <v>771</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="D441" s="26" t="s">
+      <c r="D441" s="25" t="s">
         <v>1491</v>
       </c>
       <c r="E441" s="23"/>
@@ -19756,14 +20306,16 @@
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A442" s="20"/>
+      <c r="A442" s="16">
+        <v>441</v>
+      </c>
       <c r="B442" t="s">
         <v>772</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="D442" s="26" t="s">
+      <c r="D442" s="25" t="s">
         <v>1492</v>
       </c>
       <c r="E442" s="23"/>
@@ -19781,14 +20333,16 @@
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A443" s="16"/>
+      <c r="A443" s="20">
+        <v>442</v>
+      </c>
       <c r="B443" t="s">
         <v>773</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="D443" s="26" t="s">
+      <c r="D443" s="25" t="s">
         <v>1493</v>
       </c>
       <c r="E443" s="23"/>
@@ -19806,14 +20360,16 @@
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A444" s="20"/>
+      <c r="A444" s="16">
+        <v>443</v>
+      </c>
       <c r="B444" t="s">
         <v>774</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="D444" s="26" t="s">
+      <c r="D444" s="25" t="s">
         <v>1494</v>
       </c>
       <c r="E444" s="23"/>
@@ -19831,14 +20387,16 @@
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A445" s="16"/>
+      <c r="A445" s="20">
+        <v>444</v>
+      </c>
       <c r="B445" t="s">
         <v>775</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="D445" s="26" t="s">
+      <c r="D445" s="25" t="s">
         <v>1495</v>
       </c>
       <c r="E445" s="23"/>
@@ -19856,14 +20414,16 @@
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A446" s="20"/>
+      <c r="A446" s="16">
+        <v>445</v>
+      </c>
       <c r="B446" t="s">
         <v>776</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="D446" s="26" t="s">
+      <c r="D446" s="25" t="s">
         <v>1496</v>
       </c>
       <c r="E446" s="23"/>
@@ -19881,14 +20441,16 @@
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A447" s="16"/>
+      <c r="A447" s="20">
+        <v>446</v>
+      </c>
       <c r="B447" t="s">
         <v>777</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="D447" s="26" t="s">
+      <c r="D447" s="25" t="s">
         <v>1497</v>
       </c>
       <c r="E447" s="23"/>
@@ -19906,14 +20468,16 @@
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A448" s="20"/>
+      <c r="A448" s="16">
+        <v>447</v>
+      </c>
       <c r="B448" t="s">
         <v>778</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="D448" s="26" t="s">
+      <c r="D448" s="25" t="s">
         <v>1498</v>
       </c>
       <c r="E448" s="23"/>
@@ -19931,14 +20495,16 @@
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A449" s="16"/>
+      <c r="A449" s="20">
+        <v>448</v>
+      </c>
       <c r="B449" t="s">
         <v>779</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="D449" s="26" t="s">
+      <c r="D449" s="25" t="s">
         <v>1499</v>
       </c>
       <c r="E449" s="23"/>
@@ -19956,14 +20522,16 @@
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A450" s="20"/>
+      <c r="A450" s="16">
+        <v>449</v>
+      </c>
       <c r="B450" t="s">
         <v>780</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="D450" s="26" t="s">
+      <c r="D450" s="25" t="s">
         <v>1500</v>
       </c>
       <c r="E450" s="23"/>
@@ -19981,14 +20549,16 @@
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A451" s="16"/>
+      <c r="A451" s="20">
+        <v>450</v>
+      </c>
       <c r="B451" t="s">
         <v>781</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="D451" s="26" t="s">
+      <c r="D451" s="25" t="s">
         <v>1501</v>
       </c>
       <c r="E451" s="23"/>
@@ -20006,14 +20576,16 @@
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A452" s="20"/>
+      <c r="A452" s="16">
+        <v>451</v>
+      </c>
       <c r="B452" t="s">
         <v>782</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="D452" s="26" t="s">
+      <c r="D452" s="25" t="s">
         <v>1502</v>
       </c>
       <c r="E452" s="23"/>
@@ -20031,14 +20603,16 @@
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A453" s="16"/>
+      <c r="A453" s="20">
+        <v>452</v>
+      </c>
       <c r="B453" t="s">
         <v>783</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="D453" s="26" t="s">
+      <c r="D453" s="25" t="s">
         <v>1503</v>
       </c>
       <c r="E453" s="23"/>
@@ -20056,14 +20630,16 @@
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A454" s="20"/>
+      <c r="A454" s="16">
+        <v>453</v>
+      </c>
       <c r="B454" t="s">
         <v>784</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="D454" s="26" t="s">
+      <c r="D454" s="25" t="s">
         <v>1504</v>
       </c>
       <c r="E454" s="23"/>
@@ -20081,14 +20657,16 @@
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A455" s="16"/>
+      <c r="A455" s="20">
+        <v>454</v>
+      </c>
       <c r="B455" t="s">
         <v>785</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="D455" s="26" t="s">
+      <c r="D455" s="25" t="s">
         <v>1505</v>
       </c>
       <c r="E455" s="23"/>
@@ -20106,14 +20684,16 @@
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A456" s="20"/>
+      <c r="A456" s="16">
+        <v>455</v>
+      </c>
       <c r="B456" t="s">
         <v>786</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="D456" s="26" t="s">
+      <c r="D456" s="25" t="s">
         <v>1506</v>
       </c>
       <c r="E456" s="23"/>
@@ -20131,14 +20711,16 @@
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A457" s="20"/>
+      <c r="A457" s="20">
+        <v>456</v>
+      </c>
       <c r="B457" t="s">
         <v>787</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="D457" s="26" t="s">
+      <c r="D457" s="25" t="s">
         <v>1507</v>
       </c>
       <c r="E457" s="23"/>
@@ -20156,14 +20738,16 @@
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A458" s="16"/>
+      <c r="A458" s="16">
+        <v>457</v>
+      </c>
       <c r="B458" t="s">
         <v>788</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="D458" s="26" t="s">
+      <c r="D458" s="25" t="s">
         <v>1508</v>
       </c>
       <c r="E458" s="23"/>
@@ -20181,14 +20765,16 @@
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A459" s="20"/>
+      <c r="A459" s="20">
+        <v>458</v>
+      </c>
       <c r="B459" t="s">
         <v>789</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="D459" s="26" t="s">
+      <c r="D459" s="25" t="s">
         <v>1509</v>
       </c>
       <c r="E459" s="23"/>
@@ -20206,14 +20792,16 @@
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A460" s="16"/>
+      <c r="A460" s="16">
+        <v>459</v>
+      </c>
       <c r="B460" t="s">
         <v>790</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="D460" s="26" t="s">
+      <c r="D460" s="25" t="s">
         <v>1510</v>
       </c>
       <c r="E460" s="23"/>
@@ -20231,14 +20819,16 @@
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A461" s="16"/>
+      <c r="A461" s="20">
+        <v>460</v>
+      </c>
       <c r="B461" t="s">
         <v>791</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="D461" s="26" t="s">
+      <c r="D461" s="25" t="s">
         <v>1511</v>
       </c>
       <c r="E461" s="23"/>
@@ -20256,14 +20846,16 @@
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A462" s="20"/>
+      <c r="A462" s="16">
+        <v>461</v>
+      </c>
       <c r="B462" t="s">
         <v>792</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D462" s="26" t="s">
+      <c r="D462" s="25" t="s">
         <v>1512</v>
       </c>
       <c r="E462" s="23"/>
@@ -20281,14 +20873,16 @@
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A463" s="16"/>
+      <c r="A463" s="20">
+        <v>462</v>
+      </c>
       <c r="B463" t="s">
         <v>793</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="D463" s="26" t="s">
+      <c r="D463" s="25" t="s">
         <v>1513</v>
       </c>
       <c r="E463" s="23"/>
@@ -20306,14 +20900,16 @@
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A464" s="20"/>
+      <c r="A464" s="16">
+        <v>463</v>
+      </c>
       <c r="B464" t="s">
         <v>794</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="D464" s="26" t="s">
+      <c r="D464" s="25" t="s">
         <v>1514</v>
       </c>
       <c r="E464" s="23"/>
@@ -20331,14 +20927,16 @@
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A465" s="16"/>
+      <c r="A465" s="20">
+        <v>464</v>
+      </c>
       <c r="B465" t="s">
         <v>795</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="D465" s="26" t="s">
+      <c r="D465" s="25" t="s">
         <v>1515</v>
       </c>
       <c r="E465" s="23"/>
@@ -20356,14 +20954,16 @@
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A466" s="20"/>
+      <c r="A466" s="16">
+        <v>465</v>
+      </c>
       <c r="B466" t="s">
         <v>796</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="D466" s="26" t="s">
+      <c r="D466" s="25" t="s">
         <v>1516</v>
       </c>
       <c r="E466" s="23"/>
@@ -20381,14 +20981,16 @@
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A467" s="16"/>
+      <c r="A467" s="20">
+        <v>466</v>
+      </c>
       <c r="B467" t="s">
         <v>797</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="D467" s="26" t="s">
+      <c r="D467" s="25" t="s">
         <v>1517</v>
       </c>
       <c r="E467" s="23"/>
@@ -20406,14 +21008,16 @@
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A468" s="20"/>
+      <c r="A468" s="16">
+        <v>467</v>
+      </c>
       <c r="B468" t="s">
         <v>798</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="D468" s="26" t="s">
+      <c r="D468" s="25" t="s">
         <v>1518</v>
       </c>
       <c r="E468" s="23"/>
@@ -20431,14 +21035,16 @@
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A469" s="16"/>
+      <c r="A469" s="20">
+        <v>468</v>
+      </c>
       <c r="B469" t="s">
         <v>799</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="D469" s="26" t="s">
+      <c r="D469" s="25" t="s">
         <v>1519</v>
       </c>
       <c r="E469" s="23"/>
@@ -20456,14 +21062,16 @@
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A470" s="16"/>
+      <c r="A470" s="16">
+        <v>469</v>
+      </c>
       <c r="B470" t="s">
         <v>800</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="D470" s="26" t="s">
+      <c r="D470" s="25" t="s">
         <v>1520</v>
       </c>
       <c r="E470" s="23"/>
@@ -20481,14 +21089,16 @@
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A471" s="20"/>
+      <c r="A471" s="20">
+        <v>470</v>
+      </c>
       <c r="B471" t="s">
         <v>801</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="D471" s="26" t="s">
+      <c r="D471" s="25" t="s">
         <v>1521</v>
       </c>
       <c r="E471" s="23"/>
@@ -20506,14 +21116,16 @@
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A472" s="16"/>
+      <c r="A472" s="16">
+        <v>471</v>
+      </c>
       <c r="B472" t="s">
         <v>802</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="D472" s="26" t="s">
+      <c r="D472" s="25" t="s">
         <v>1522</v>
       </c>
       <c r="E472" s="23"/>
@@ -20531,14 +21143,16 @@
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A473" s="20"/>
+      <c r="A473" s="20">
+        <v>472</v>
+      </c>
       <c r="B473" t="s">
         <v>803</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="D473" s="26" t="s">
+      <c r="D473" s="25" t="s">
         <v>1523</v>
       </c>
       <c r="E473" s="23"/>
@@ -20556,14 +21170,16 @@
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A474" s="16"/>
+      <c r="A474" s="16">
+        <v>473</v>
+      </c>
       <c r="B474" t="s">
         <v>804</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="D474" s="26" t="s">
+      <c r="D474" s="25" t="s">
         <v>1524</v>
       </c>
       <c r="E474" s="23"/>
@@ -20581,14 +21197,16 @@
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A475" s="20"/>
+      <c r="A475" s="20">
+        <v>474</v>
+      </c>
       <c r="B475" t="s">
         <v>805</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="D475" s="26" t="s">
+      <c r="D475" s="25" t="s">
         <v>1525</v>
       </c>
       <c r="E475" s="23"/>
@@ -20606,14 +21224,16 @@
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A476" s="16"/>
+      <c r="A476" s="16">
+        <v>475</v>
+      </c>
       <c r="B476" t="s">
         <v>806</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="D476" s="26" t="s">
+      <c r="D476" s="25" t="s">
         <v>1526</v>
       </c>
       <c r="E476" s="23"/>
@@ -20631,14 +21251,16 @@
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A477" s="20"/>
+      <c r="A477" s="20">
+        <v>476</v>
+      </c>
       <c r="B477" t="s">
         <v>807</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="D477" s="26" t="s">
+      <c r="D477" s="25" t="s">
         <v>1527</v>
       </c>
       <c r="E477" s="23"/>
@@ -20656,14 +21278,16 @@
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A478" s="16"/>
+      <c r="A478" s="16">
+        <v>477</v>
+      </c>
       <c r="B478" t="s">
         <v>808</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="D478" s="26" t="s">
+      <c r="D478" s="25" t="s">
         <v>1528</v>
       </c>
       <c r="E478" s="23"/>
@@ -20681,14 +21305,16 @@
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A479" s="20"/>
+      <c r="A479" s="20">
+        <v>478</v>
+      </c>
       <c r="B479" t="s">
         <v>809</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="D479" s="26" t="s">
+      <c r="D479" s="25" t="s">
         <v>1529</v>
       </c>
       <c r="E479" s="23"/>
@@ -20706,14 +21332,16 @@
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A480" s="20"/>
+      <c r="A480" s="16">
+        <v>479</v>
+      </c>
       <c r="B480" t="s">
         <v>810</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="D480" s="26" t="s">
+      <c r="D480" s="25" t="s">
         <v>1530</v>
       </c>
       <c r="E480" s="23"/>
@@ -20731,14 +21359,16 @@
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A481" s="16"/>
+      <c r="A481" s="20">
+        <v>480</v>
+      </c>
       <c r="B481" t="s">
         <v>811</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="D481" s="26" t="s">
+      <c r="D481" s="25" t="s">
         <v>1531</v>
       </c>
       <c r="E481" s="23"/>
@@ -20756,14 +21386,16 @@
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A482" s="20"/>
+      <c r="A482" s="16">
+        <v>481</v>
+      </c>
       <c r="B482" t="s">
         <v>812</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="D482" s="26" t="s">
+      <c r="D482" s="25" t="s">
         <v>1532</v>
       </c>
       <c r="E482" s="23"/>
@@ -20781,14 +21413,16 @@
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A483" s="16"/>
+      <c r="A483" s="20">
+        <v>482</v>
+      </c>
       <c r="B483" t="s">
         <v>813</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="D483" s="26" t="s">
+      <c r="D483" s="25" t="s">
         <v>1533</v>
       </c>
       <c r="E483" s="23"/>
@@ -20806,14 +21440,16 @@
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A484" s="20"/>
+      <c r="A484" s="16">
+        <v>483</v>
+      </c>
       <c r="B484" t="s">
         <v>814</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="D484" s="26" t="s">
+      <c r="D484" s="25" t="s">
         <v>1534</v>
       </c>
       <c r="E484" s="23"/>
@@ -20831,14 +21467,16 @@
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A485" s="16"/>
+      <c r="A485" s="20">
+        <v>484</v>
+      </c>
       <c r="B485" t="s">
         <v>815</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="D485" s="26" t="s">
+      <c r="D485" s="25" t="s">
         <v>1535</v>
       </c>
       <c r="E485" s="23"/>
@@ -20856,14 +21494,16 @@
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A486" s="20"/>
+      <c r="A486" s="16">
+        <v>485</v>
+      </c>
       <c r="B486" t="s">
         <v>816</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="D486" s="26" t="s">
+      <c r="D486" s="25" t="s">
         <v>1536</v>
       </c>
       <c r="E486" s="23"/>
@@ -20881,14 +21521,16 @@
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A487" s="16"/>
+      <c r="A487" s="20">
+        <v>486</v>
+      </c>
       <c r="B487" t="s">
         <v>817</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="D487" s="26" t="s">
+      <c r="D487" s="25" t="s">
         <v>1537</v>
       </c>
       <c r="E487" s="23"/>
@@ -20906,14 +21548,16 @@
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A488" s="20"/>
+      <c r="A488" s="16">
+        <v>487</v>
+      </c>
       <c r="B488" t="s">
         <v>818</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="D488" s="26" t="s">
+      <c r="D488" s="25" t="s">
         <v>1538</v>
       </c>
       <c r="E488" s="23"/>
@@ -20931,14 +21575,16 @@
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A489" s="16"/>
+      <c r="A489" s="20">
+        <v>488</v>
+      </c>
       <c r="B489" t="s">
         <v>819</v>
       </c>
       <c r="C489" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="D489" s="26" t="s">
+      <c r="D489" s="25" t="s">
         <v>1539</v>
       </c>
       <c r="E489" s="23"/>
@@ -20956,14 +21602,16 @@
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A490" s="20"/>
+      <c r="A490" s="16">
+        <v>489</v>
+      </c>
       <c r="B490" t="s">
         <v>820</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="D490" s="26" t="s">
+      <c r="D490" s="25" t="s">
         <v>1540</v>
       </c>
       <c r="E490" s="23"/>
@@ -20981,14 +21629,16 @@
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A491" s="16"/>
+      <c r="A491" s="20">
+        <v>490</v>
+      </c>
       <c r="B491" t="s">
         <v>821</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="D491" s="26" t="s">
+      <c r="D491" s="25" t="s">
         <v>1541</v>
       </c>
       <c r="E491" s="23"/>
@@ -21006,14 +21656,16 @@
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A492" s="20"/>
+      <c r="A492" s="16">
+        <v>491</v>
+      </c>
       <c r="B492" t="s">
         <v>822</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="D492" s="26" t="s">
+      <c r="D492" s="25" t="s">
         <v>1542</v>
       </c>
       <c r="E492" s="23"/>
@@ -21031,14 +21683,16 @@
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A493" s="16"/>
+      <c r="A493" s="20">
+        <v>492</v>
+      </c>
       <c r="B493" t="s">
         <v>823</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="D493" s="26" t="s">
+      <c r="D493" s="25" t="s">
         <v>1543</v>
       </c>
       <c r="E493" s="23"/>
@@ -21056,14 +21710,16 @@
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A494" s="20"/>
+      <c r="A494" s="16">
+        <v>493</v>
+      </c>
       <c r="B494" t="s">
         <v>824</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="D494" s="26" t="s">
+      <c r="D494" s="25" t="s">
         <v>1544</v>
       </c>
       <c r="E494" s="23"/>
@@ -21081,14 +21737,16 @@
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A495" s="16"/>
+      <c r="A495" s="20">
+        <v>494</v>
+      </c>
       <c r="B495" t="s">
         <v>825</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="D495" s="26" t="s">
+      <c r="D495" s="25" t="s">
         <v>1545</v>
       </c>
       <c r="E495" s="23"/>
@@ -21106,14 +21764,16 @@
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A496" s="20"/>
+      <c r="A496" s="16">
+        <v>495</v>
+      </c>
       <c r="B496" t="s">
         <v>826</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="D496" s="26" t="s">
+      <c r="D496" s="25" t="s">
         <v>1546</v>
       </c>
       <c r="E496" s="23"/>
@@ -21131,14 +21791,16 @@
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A497" s="16"/>
+      <c r="A497" s="20">
+        <v>496</v>
+      </c>
       <c r="B497" t="s">
         <v>827</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="D497" s="26" t="s">
+      <c r="D497" s="25" t="s">
         <v>1547</v>
       </c>
       <c r="E497" s="23"/>
@@ -21156,14 +21818,16 @@
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A498" s="20"/>
+      <c r="A498" s="16">
+        <v>497</v>
+      </c>
       <c r="B498" t="s">
         <v>828</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="D498" s="26" t="s">
+      <c r="D498" s="25" t="s">
         <v>1548</v>
       </c>
       <c r="E498" s="23"/>
@@ -21181,14 +21845,16 @@
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A499" s="16"/>
+      <c r="A499" s="20">
+        <v>498</v>
+      </c>
       <c r="B499" t="s">
         <v>829</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="D499" s="26" t="s">
+      <c r="D499" s="25" t="s">
         <v>1549</v>
       </c>
       <c r="E499" s="23"/>
@@ -21206,14 +21872,16 @@
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A500" s="20"/>
+      <c r="A500" s="16">
+        <v>499</v>
+      </c>
       <c r="B500" t="s">
         <v>830</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="D500" s="26" t="s">
+      <c r="D500" s="25" t="s">
         <v>1550</v>
       </c>
       <c r="E500" s="23"/>
@@ -21231,14 +21899,16 @@
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A501" s="24"/>
+      <c r="A501" s="20">
+        <v>500</v>
+      </c>
       <c r="B501" t="s">
         <v>831</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="D501" s="26" t="s">
+      <c r="D501" s="25" t="s">
         <v>1551</v>
       </c>
       <c r="E501" s="23"/>
@@ -21250,19 +21920,22 @@
       <c r="J501" s="4"/>
       <c r="K501" s="6"/>
       <c r="L501" s="6"/>
-      <c r="M501" s="25"/>
+      <c r="M501" s="24"/>
       <c r="N501" s="19" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A502" s="16">
+        <v>501</v>
+      </c>
       <c r="B502" t="s">
         <v>832</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="D502" s="26" t="s">
+      <c r="D502" s="25" t="s">
         <v>1552</v>
       </c>
       <c r="E502" s="23"/>
@@ -21277,13 +21950,16 @@
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A503" s="20">
+        <v>502</v>
+      </c>
       <c r="B503" t="s">
         <v>833</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="D503" s="26" t="s">
+      <c r="D503" s="25" t="s">
         <v>1553</v>
       </c>
       <c r="E503" s="23"/>
@@ -21298,13 +21974,16 @@
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A504" s="16">
+        <v>503</v>
+      </c>
       <c r="B504" t="s">
         <v>834</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="D504" s="26" t="s">
+      <c r="D504" s="25" t="s">
         <v>1554</v>
       </c>
       <c r="E504" s="23"/>
@@ -21319,13 +21998,16 @@
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A505" s="20">
+        <v>504</v>
+      </c>
       <c r="B505" t="s">
         <v>835</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="D505" s="26" t="s">
+      <c r="D505" s="25" t="s">
         <v>1555</v>
       </c>
       <c r="E505" s="23"/>
@@ -21340,13 +22022,16 @@
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A506" s="16">
+        <v>505</v>
+      </c>
       <c r="B506" t="s">
         <v>836</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="D506" s="26" t="s">
+      <c r="D506" s="25" t="s">
         <v>1556</v>
       </c>
       <c r="E506" s="23"/>
@@ -21361,13 +22046,16 @@
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A507" s="20">
+        <v>506</v>
+      </c>
       <c r="B507" t="s">
         <v>837</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="D507" s="26" t="s">
+      <c r="D507" s="25" t="s">
         <v>1557</v>
       </c>
       <c r="E507" s="23"/>
@@ -21382,13 +22070,16 @@
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A508" s="16">
+        <v>507</v>
+      </c>
       <c r="B508" t="s">
         <v>838</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="D508" s="26" t="s">
+      <c r="D508" s="25" t="s">
         <v>1558</v>
       </c>
       <c r="E508" s="23"/>
@@ -21403,13 +22094,16 @@
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A509" s="20">
+        <v>508</v>
+      </c>
       <c r="B509" t="s">
         <v>839</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="D509" s="26" t="s">
+      <c r="D509" s="25" t="s">
         <v>1559</v>
       </c>
       <c r="E509" s="23"/>
@@ -21424,13 +22118,16 @@
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A510" s="16">
+        <v>509</v>
+      </c>
       <c r="B510" t="s">
         <v>840</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="D510" s="26" t="s">
+      <c r="D510" s="25" t="s">
         <v>1560</v>
       </c>
       <c r="E510" s="23"/>
@@ -21445,13 +22142,16 @@
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A511" s="20">
+        <v>510</v>
+      </c>
       <c r="B511" t="s">
         <v>841</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="D511" s="26" t="s">
+      <c r="D511" s="25" t="s">
         <v>1561</v>
       </c>
       <c r="E511" s="23"/>
@@ -21466,13 +22166,16 @@
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A512" s="16">
+        <v>511</v>
+      </c>
       <c r="B512" t="s">
         <v>842</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="D512" s="26" t="s">
+      <c r="D512" s="25" t="s">
         <v>1562</v>
       </c>
       <c r="E512" s="23"/>
@@ -21486,14 +22189,17 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="513" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A513" s="20">
+        <v>512</v>
+      </c>
       <c r="B513" t="s">
         <v>843</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="D513" s="26" t="s">
+      <c r="D513" s="25" t="s">
         <v>1563</v>
       </c>
       <c r="E513" s="23"/>
@@ -21507,14 +22213,17 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="514" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A514" s="16">
+        <v>513</v>
+      </c>
       <c r="B514" t="s">
         <v>844</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="D514" s="26" t="s">
+      <c r="D514" s="25" t="s">
         <v>1564</v>
       </c>
       <c r="E514" s="23"/>
@@ -21528,14 +22237,17 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="515" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A515" s="20">
+        <v>514</v>
+      </c>
       <c r="B515" t="s">
         <v>845</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="D515" s="26" t="s">
+      <c r="D515" s="25" t="s">
         <v>1565</v>
       </c>
       <c r="E515" s="23"/>
@@ -21549,7 +22261,10 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="516" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A516" s="16">
+        <v>515</v>
+      </c>
       <c r="B516" t="s">
         <v>1566</v>
       </c>
@@ -21571,7 +22286,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="517" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A517" s="20">
+        <v>516</v>
+      </c>
       <c r="B517" t="s">
         <v>1567</v>
       </c>
@@ -21593,7 +22311,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="518" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A518" s="16">
+        <v>517</v>
+      </c>
       <c r="B518" t="s">
         <v>1568</v>
       </c>
@@ -21615,7 +22336,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="519" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A519" s="20">
+        <v>518</v>
+      </c>
       <c r="B519" t="s">
         <v>1569</v>
       </c>
@@ -21637,7 +22361,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="520" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A520" s="16">
+        <v>519</v>
+      </c>
       <c r="B520" t="s">
         <v>1570</v>
       </c>
@@ -21659,7 +22386,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="521" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A521" s="20">
+        <v>520</v>
+      </c>
       <c r="B521" t="s">
         <v>1571</v>
       </c>
@@ -21681,7 +22411,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="522" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A522" s="16">
+        <v>521</v>
+      </c>
       <c r="B522" t="s">
         <v>1572</v>
       </c>
@@ -21703,7 +22436,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="523" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A523" s="20">
+        <v>522</v>
+      </c>
       <c r="B523" t="s">
         <v>1573</v>
       </c>
@@ -21725,7 +22461,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="524" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A524" s="16">
+        <v>523</v>
+      </c>
       <c r="B524" t="s">
         <v>1574</v>
       </c>
@@ -21747,7 +22486,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="525" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A525" s="20">
+        <v>524</v>
+      </c>
       <c r="B525" t="s">
         <v>1575</v>
       </c>
@@ -21769,7 +22511,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="526" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A526" s="16">
+        <v>525</v>
+      </c>
       <c r="B526" t="s">
         <v>1576</v>
       </c>
@@ -21791,7 +22536,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="527" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A527" s="20">
+        <v>526</v>
+      </c>
       <c r="B527" t="s">
         <v>1577</v>
       </c>
@@ -21813,7 +22561,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="528" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A528" s="16">
+        <v>527</v>
+      </c>
       <c r="B528" t="s">
         <v>1578</v>
       </c>
@@ -21835,7 +22586,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="529" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A529" s="20">
+        <v>528</v>
+      </c>
       <c r="B529" t="s">
         <v>1579</v>
       </c>
@@ -21857,7 +22611,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="530" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A530" s="16">
+        <v>529</v>
+      </c>
       <c r="B530" t="s">
         <v>1580</v>
       </c>
@@ -21879,7 +22636,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="531" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A531" s="20">
+        <v>530</v>
+      </c>
       <c r="B531" t="s">
         <v>1581</v>
       </c>
@@ -21901,7 +22661,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="532" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A532" s="16">
+        <v>531</v>
+      </c>
       <c r="B532" t="s">
         <v>1582</v>
       </c>
@@ -21923,7 +22686,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="533" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A533" s="20">
+        <v>532</v>
+      </c>
       <c r="B533" t="s">
         <v>1583</v>
       </c>
@@ -21945,7 +22711,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="534" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A534" s="16">
+        <v>533</v>
+      </c>
       <c r="B534" t="s">
         <v>1584</v>
       </c>
@@ -21967,7 +22736,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="535" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A535" s="20">
+        <v>534</v>
+      </c>
       <c r="B535" t="s">
         <v>1585</v>
       </c>
@@ -21989,7 +22761,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="536" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A536" s="16">
+        <v>535</v>
+      </c>
       <c r="B536" t="s">
         <v>1586</v>
       </c>
@@ -22011,7 +22786,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="537" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A537" s="20">
+        <v>536</v>
+      </c>
       <c r="B537" t="s">
         <v>1587</v>
       </c>
@@ -22033,7 +22811,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="538" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A538" s="16">
+        <v>537</v>
+      </c>
       <c r="B538" t="s">
         <v>1588</v>
       </c>
@@ -22055,7 +22836,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="539" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A539" s="20">
+        <v>538</v>
+      </c>
       <c r="B539" t="s">
         <v>1589</v>
       </c>
@@ -22077,7 +22861,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="540" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A540" s="16">
+        <v>539</v>
+      </c>
       <c r="B540" t="s">
         <v>1590</v>
       </c>
@@ -22099,7 +22886,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="541" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A541" s="20">
+        <v>540</v>
+      </c>
       <c r="B541" t="s">
         <v>1591</v>
       </c>
@@ -22121,7 +22911,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="542" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A542" s="16">
+        <v>541</v>
+      </c>
       <c r="B542" t="s">
         <v>1592</v>
       </c>
@@ -22143,7 +22936,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="543" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A543" s="20">
+        <v>542</v>
+      </c>
       <c r="B543" t="s">
         <v>1593</v>
       </c>
@@ -22165,7 +22961,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="544" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A544" s="16">
+        <v>543</v>
+      </c>
       <c r="B544" t="s">
         <v>1594</v>
       </c>
@@ -22187,7 +22986,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="545" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A545" s="20">
+        <v>544</v>
+      </c>
       <c r="B545" t="s">
         <v>1595</v>
       </c>
@@ -22209,7 +23011,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="546" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A546" s="16">
+        <v>545</v>
+      </c>
       <c r="B546" t="s">
         <v>1596</v>
       </c>
@@ -22231,7 +23036,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="547" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A547" s="20">
+        <v>546</v>
+      </c>
       <c r="B547" t="s">
         <v>1597</v>
       </c>
@@ -22253,7 +23061,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="548" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A548" s="16">
+        <v>547</v>
+      </c>
       <c r="B548" t="s">
         <v>1598</v>
       </c>
@@ -22275,7 +23086,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="549" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A549" s="20">
+        <v>548</v>
+      </c>
       <c r="B549" t="s">
         <v>1599</v>
       </c>
@@ -22297,7 +23111,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="550" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A550" s="16">
+        <v>549</v>
+      </c>
       <c r="B550" t="s">
         <v>1600</v>
       </c>
@@ -22319,7 +23136,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="551" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A551" s="20">
+        <v>550</v>
+      </c>
       <c r="B551" t="s">
         <v>1601</v>
       </c>
@@ -22341,7 +23161,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="552" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A552" s="16">
+        <v>551</v>
+      </c>
       <c r="B552" t="s">
         <v>1602</v>
       </c>
@@ -22363,7 +23186,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="553" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A553" s="20">
+        <v>552</v>
+      </c>
       <c r="B553" t="s">
         <v>1603</v>
       </c>
@@ -22385,7 +23211,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="554" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A554" s="16">
+        <v>553</v>
+      </c>
       <c r="B554" t="s">
         <v>1604</v>
       </c>
@@ -22407,7 +23236,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="555" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A555" s="20">
+        <v>554</v>
+      </c>
       <c r="B555" t="s">
         <v>1605</v>
       </c>
@@ -22429,7 +23261,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="556" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A556" s="16">
+        <v>555</v>
+      </c>
       <c r="B556" t="s">
         <v>1606</v>
       </c>
@@ -22451,7 +23286,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="557" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A557" s="20">
+        <v>556</v>
+      </c>
       <c r="B557" t="s">
         <v>1607</v>
       </c>
@@ -22473,7 +23311,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="558" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A558" s="16">
+        <v>557</v>
+      </c>
       <c r="B558" t="s">
         <v>1608</v>
       </c>
@@ -22495,7 +23336,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="559" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A559" s="20">
+        <v>558</v>
+      </c>
       <c r="B559" t="s">
         <v>1609</v>
       </c>
@@ -22517,7 +23361,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="560" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A560" s="16">
+        <v>559</v>
+      </c>
       <c r="B560" t="s">
         <v>1610</v>
       </c>
@@ -22539,7 +23386,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="561" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A561" s="20">
+        <v>560</v>
+      </c>
       <c r="B561" t="s">
         <v>1611</v>
       </c>
@@ -22561,7 +23411,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="562" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A562" s="16">
+        <v>561</v>
+      </c>
       <c r="B562" t="s">
         <v>1612</v>
       </c>
@@ -22583,7 +23436,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="563" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A563" s="20">
+        <v>562</v>
+      </c>
       <c r="B563" t="s">
         <v>1613</v>
       </c>
@@ -22605,7 +23461,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="564" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A564" s="16">
+        <v>563</v>
+      </c>
       <c r="B564" t="s">
         <v>1614</v>
       </c>
@@ -22627,7 +23486,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="565" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A565" s="20">
+        <v>564</v>
+      </c>
       <c r="B565" t="s">
         <v>1615</v>
       </c>
@@ -22649,7 +23511,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="566" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A566" s="16">
+        <v>565</v>
+      </c>
       <c r="B566" t="s">
         <v>1616</v>
       </c>
@@ -22671,7 +23536,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="567" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A567" s="20">
+        <v>566</v>
+      </c>
       <c r="B567" t="s">
         <v>1617</v>
       </c>
@@ -22693,7 +23561,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="568" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A568" s="16">
+        <v>567</v>
+      </c>
       <c r="B568" t="s">
         <v>1618</v>
       </c>
@@ -22715,7 +23586,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="569" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A569" s="20">
+        <v>568</v>
+      </c>
       <c r="B569" t="s">
         <v>1619</v>
       </c>
@@ -22737,7 +23611,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="570" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A570" s="16">
+        <v>569</v>
+      </c>
       <c r="B570" t="s">
         <v>1620</v>
       </c>
@@ -22759,7 +23636,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="571" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A571" s="20">
+        <v>570</v>
+      </c>
       <c r="B571" t="s">
         <v>1621</v>
       </c>
@@ -22781,7 +23661,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="572" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A572" s="16">
+        <v>571</v>
+      </c>
       <c r="B572" t="s">
         <v>1622</v>
       </c>
@@ -22803,7 +23686,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="573" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A573" s="20">
+        <v>572</v>
+      </c>
       <c r="B573" t="s">
         <v>1623</v>
       </c>
@@ -22825,7 +23711,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="574" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A574" s="16">
+        <v>573</v>
+      </c>
       <c r="B574" t="s">
         <v>1624</v>
       </c>
@@ -22847,7 +23736,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="575" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A575" s="20">
+        <v>574</v>
+      </c>
       <c r="B575" t="s">
         <v>1625</v>
       </c>
@@ -22869,7 +23761,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="576" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A576" s="16">
+        <v>575</v>
+      </c>
       <c r="B576" t="s">
         <v>1626</v>
       </c>
@@ -22891,7 +23786,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="577" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A577" s="20">
+        <v>576</v>
+      </c>
       <c r="B577" t="s">
         <v>1627</v>
       </c>
@@ -22913,7 +23811,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="578" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A578" s="16">
+        <v>577</v>
+      </c>
       <c r="B578" t="s">
         <v>1628</v>
       </c>
@@ -22935,7 +23836,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="579" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A579" s="20">
+        <v>578</v>
+      </c>
       <c r="B579" t="s">
         <v>1629</v>
       </c>
@@ -22957,7 +23861,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="580" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A580" s="16">
+        <v>579</v>
+      </c>
       <c r="B580" t="s">
         <v>1630</v>
       </c>
@@ -22979,7 +23886,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="581" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A581" s="20">
+        <v>580</v>
+      </c>
       <c r="B581" t="s">
         <v>1631</v>
       </c>
@@ -23001,7 +23911,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="582" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A582" s="16">
+        <v>581</v>
+      </c>
       <c r="B582" t="s">
         <v>1632</v>
       </c>
@@ -23023,7 +23936,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="583" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A583" s="20">
+        <v>582</v>
+      </c>
       <c r="B583" t="s">
         <v>1633</v>
       </c>
@@ -23045,7 +23961,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="584" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A584" s="16">
+        <v>583</v>
+      </c>
       <c r="B584" t="s">
         <v>1634</v>
       </c>
@@ -23067,7 +23986,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="585" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A585" s="20">
+        <v>584</v>
+      </c>
       <c r="B585" t="s">
         <v>1635</v>
       </c>
@@ -23089,7 +24011,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="586" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A586" s="16">
+        <v>585</v>
+      </c>
       <c r="B586" t="s">
         <v>1636</v>
       </c>
@@ -23111,7 +24036,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="587" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A587" s="20">
+        <v>586</v>
+      </c>
       <c r="B587" t="s">
         <v>1637</v>
       </c>
@@ -23133,7 +24061,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="588" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A588" s="16">
+        <v>587</v>
+      </c>
       <c r="B588" t="s">
         <v>1638</v>
       </c>
@@ -23155,7 +24086,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="589" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A589" s="20">
+        <v>588</v>
+      </c>
       <c r="B589" t="s">
         <v>1639</v>
       </c>
@@ -23177,7 +24111,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="590" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A590" s="16">
+        <v>589</v>
+      </c>
       <c r="B590" t="s">
         <v>1640</v>
       </c>
@@ -23199,7 +24136,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="591" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A591" s="20">
+        <v>590</v>
+      </c>
       <c r="B591" t="s">
         <v>1644</v>
       </c>
@@ -23221,7 +24161,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="592" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A592" s="16">
+        <v>591</v>
+      </c>
       <c r="B592" t="s">
         <v>1645</v>
       </c>
@@ -23243,7 +24186,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="593" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A593" s="20">
+        <v>592</v>
+      </c>
       <c r="B593" t="s">
         <v>1646</v>
       </c>
@@ -23265,7 +24211,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="594" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A594" s="16">
+        <v>593</v>
+      </c>
       <c r="B594" t="s">
         <v>1647</v>
       </c>
@@ -23287,7 +24236,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="595" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A595" s="20">
+        <v>594</v>
+      </c>
       <c r="B595" t="s">
         <v>1648</v>
       </c>
@@ -23309,7 +24261,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="596" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A596" s="16">
+        <v>595</v>
+      </c>
       <c r="B596" t="s">
         <v>1649</v>
       </c>
@@ -23331,7 +24286,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="597" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A597" s="20">
+        <v>596</v>
+      </c>
       <c r="B597" t="s">
         <v>1650</v>
       </c>
@@ -23353,7 +24311,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="598" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A598" s="16">
+        <v>597</v>
+      </c>
       <c r="B598" t="s">
         <v>1651</v>
       </c>
@@ -23375,7 +24336,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="599" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A599" s="20">
+        <v>598</v>
+      </c>
       <c r="B599" t="s">
         <v>1652</v>
       </c>
@@ -23397,7 +24361,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="600" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A600" s="16">
+        <v>599</v>
+      </c>
       <c r="B600" t="s">
         <v>1653</v>
       </c>
@@ -23419,7 +24386,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="601" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A601" s="20">
+        <v>600</v>
+      </c>
       <c r="B601" t="s">
         <v>1654</v>
       </c>
@@ -23441,7 +24411,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="602" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A602" s="16">
+        <v>601</v>
+      </c>
       <c r="B602" t="s">
         <v>1655</v>
       </c>
@@ -23463,7 +24436,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="603" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A603" s="20">
+        <v>602</v>
+      </c>
       <c r="B603" t="s">
         <v>1656</v>
       </c>
@@ -23485,7 +24461,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="604" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A604" s="16">
+        <v>603</v>
+      </c>
       <c r="B604" t="s">
         <v>1657</v>
       </c>
@@ -23507,7 +24486,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="605" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A605" s="20">
+        <v>604</v>
+      </c>
       <c r="B605" t="s">
         <v>1658</v>
       </c>
@@ -23529,7 +24511,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="606" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A606" s="16">
+        <v>605</v>
+      </c>
       <c r="B606" t="s">
         <v>1659</v>
       </c>
@@ -23551,7 +24536,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="607" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A607" s="20">
+        <v>606</v>
+      </c>
       <c r="B607" t="s">
         <v>1660</v>
       </c>
@@ -23573,7 +24561,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="608" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A608" s="16">
+        <v>607</v>
+      </c>
       <c r="B608" t="s">
         <v>1661</v>
       </c>
@@ -23595,7 +24586,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="609" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A609" s="20">
+        <v>608</v>
+      </c>
       <c r="B609" t="s">
         <v>1662</v>
       </c>
@@ -23617,7 +24611,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="610" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A610" s="16">
+        <v>609</v>
+      </c>
       <c r="B610" t="s">
         <v>1663</v>
       </c>
@@ -23639,7 +24636,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="611" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A611" s="20">
+        <v>610</v>
+      </c>
       <c r="B611" t="s">
         <v>1664</v>
       </c>
@@ -23661,7 +24661,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="612" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A612" s="16">
+        <v>611</v>
+      </c>
       <c r="B612" t="s">
         <v>1665</v>
       </c>
@@ -23683,7 +24686,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="613" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A613" s="20">
+        <v>612</v>
+      </c>
       <c r="B613" t="s">
         <v>1666</v>
       </c>
@@ -23705,7 +24711,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="614" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A614" s="16">
+        <v>613</v>
+      </c>
       <c r="B614" t="s">
         <v>1667</v>
       </c>
@@ -23727,7 +24736,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="615" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A615" s="20">
+        <v>614</v>
+      </c>
       <c r="B615" t="s">
         <v>1668</v>
       </c>
@@ -23749,7 +24761,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="616" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A616" s="16">
+        <v>615</v>
+      </c>
       <c r="B616" t="s">
         <v>1669</v>
       </c>
@@ -23771,7 +24786,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="617" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A617" s="20">
+        <v>616</v>
+      </c>
       <c r="B617" t="s">
         <v>1670</v>
       </c>
@@ -23793,7 +24811,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="618" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A618" s="16">
+        <v>617</v>
+      </c>
       <c r="B618" t="s">
         <v>1671</v>
       </c>
@@ -23815,7 +24836,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="619" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A619" s="20">
+        <v>618</v>
+      </c>
       <c r="B619" t="s">
         <v>1672</v>
       </c>
@@ -23837,7 +24861,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="620" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A620" s="16">
+        <v>619</v>
+      </c>
       <c r="B620" t="s">
         <v>1673</v>
       </c>
@@ -23859,7 +24886,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="621" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A621" s="20">
+        <v>620</v>
+      </c>
       <c r="B621" t="s">
         <v>1674</v>
       </c>
@@ -23881,7 +24911,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="622" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A622" s="16">
+        <v>621</v>
+      </c>
       <c r="B622" t="s">
         <v>1675</v>
       </c>
@@ -23903,7 +24936,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="623" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A623" s="20">
+        <v>622</v>
+      </c>
       <c r="B623" t="s">
         <v>1676</v>
       </c>
@@ -23925,7 +24961,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="624" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A624" s="16">
+        <v>623</v>
+      </c>
       <c r="B624" t="s">
         <v>1677</v>
       </c>
@@ -23947,7 +24986,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="625" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A625" s="20">
+        <v>624</v>
+      </c>
       <c r="B625" t="s">
         <v>1678</v>
       </c>
@@ -23969,7 +25011,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="626" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A626" s="16">
+        <v>625</v>
+      </c>
       <c r="B626" t="s">
         <v>1679</v>
       </c>
@@ -23991,7 +25036,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="627" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A627" s="20">
+        <v>626</v>
+      </c>
       <c r="B627" t="s">
         <v>1680</v>
       </c>
@@ -24013,7 +25061,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="628" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A628" s="16">
+        <v>627</v>
+      </c>
       <c r="B628" t="s">
         <v>1681</v>
       </c>
@@ -24035,7 +25086,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="629" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A629" s="20">
+        <v>628</v>
+      </c>
       <c r="B629" t="s">
         <v>1682</v>
       </c>
@@ -24057,7 +25111,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="630" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A630" s="16">
+        <v>629</v>
+      </c>
       <c r="B630" t="s">
         <v>1683</v>
       </c>
@@ -24079,7 +25136,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="631" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A631" s="20">
+        <v>630</v>
+      </c>
       <c r="B631" t="s">
         <v>1684</v>
       </c>
@@ -24101,7 +25161,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="632" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A632" s="16">
+        <v>631</v>
+      </c>
       <c r="B632" t="s">
         <v>1685</v>
       </c>
@@ -24123,7 +25186,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="633" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A633" s="20">
+        <v>632</v>
+      </c>
       <c r="B633" t="s">
         <v>1686</v>
       </c>
@@ -24145,7 +25211,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="634" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A634" s="16">
+        <v>633</v>
+      </c>
       <c r="B634" t="s">
         <v>1687</v>
       </c>
@@ -24167,7 +25236,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="635" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A635" s="20">
+        <v>634</v>
+      </c>
       <c r="B635" t="s">
         <v>1688</v>
       </c>
@@ -24189,7 +25261,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="636" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A636" s="16">
+        <v>635</v>
+      </c>
       <c r="B636" t="s">
         <v>1689</v>
       </c>
@@ -24211,7 +25286,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="637" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A637" s="20">
+        <v>636</v>
+      </c>
       <c r="B637" t="s">
         <v>1690</v>
       </c>
@@ -24233,7 +25311,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="638" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A638" s="16">
+        <v>637</v>
+      </c>
       <c r="B638" t="s">
         <v>1691</v>
       </c>
@@ -24255,7 +25336,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="639" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A639" s="20">
+        <v>638</v>
+      </c>
       <c r="B639" t="s">
         <v>1692</v>
       </c>
@@ -24277,7 +25361,10 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="640" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A640" s="16">
+        <v>639</v>
+      </c>
       <c r="B640" t="s">
         <v>1693</v>
       </c>
